--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_12_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_12_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8283.163625030338</v>
+        <v>-3104.236239924647</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25705379.40666822</v>
+        <v>25705337.37705734</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19626854.80368535</v>
+        <v>19638957.17345122</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2097408.687414579</v>
+        <v>2093497.86243053</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.52930446208646</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>37.52930446208646</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>37.52930446208646</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>33.0558113702057</v>
       </c>
       <c r="Y11" t="n">
-        <v>33.05581137020574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37.52930446208646</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>37.52930446208646</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>37.52930446208646</v>
+        <v>33.0558113702057</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>33.05581137020574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>37.52930446208646</v>
+        <v>33.0558113702057</v>
       </c>
       <c r="S13" t="n">
-        <v>37.52930446208646</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>37.52930446208646</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>33.05581137020576</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,20 +1606,20 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>37.52930446208642</v>
       </c>
-      <c r="C14" t="n">
-        <v>33.05581137020569</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>37.52930446208642</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>33.0558113702057</v>
       </c>
     </row>
     <row r="15">
@@ -1697,52 +1697,52 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
+        <v>33.0558113702057</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>37.52930446208642</v>
       </c>
-      <c r="G15" t="n">
-        <v>33.05581137020569</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="U15" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>37.52930446208642</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.0558113702057</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="S16" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>37.52930446208642</v>
       </c>
       <c r="U16" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>33.05581137020569</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,76 +1843,76 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>45.40562735059405</v>
       </c>
-      <c r="C17" t="n">
+      <c r="E17" t="n">
         <v>45.40562735059405</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>45.40562735059405</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>39.99327657040322</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>39.99327657040322</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>45.40562735059405</v>
       </c>
       <c r="V18" t="n">
-        <v>39.99327657040322</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>39.99327657040322</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>39.99327657040322</v>
+        <v>45.40562735059405</v>
       </c>
       <c r="S19" t="n">
-        <v>45.40562735059405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>45.40562735059405</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>45.40562735059405</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>45.40562735059405</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>45.40562735059405</v>
       </c>
       <c r="U20" t="n">
         <v>39.99327657040322</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,16 +2162,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>45.40562735059405</v>
       </c>
       <c r="E21" t="n">
-        <v>39.99327657040322</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>33.73227489687343</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6.26100167352979</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>45.40562735059405</v>
       </c>
       <c r="U21" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>45.40562735059405</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>39.99327657040322</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>45.40562735059405</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>45.40562735059405</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>45.40562735059405</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>39.99327657040322</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>59.47267904092692</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>59.47267904092692</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="U23" t="n">
-        <v>59.47267904092692</v>
+        <v>52.38353569924842</v>
       </c>
       <c r="V23" t="n">
-        <v>52.38353569924841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2408,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>59.47267904092692</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>59.47267904092692</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5.182422756598129</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="U24" t="n">
-        <v>52.38353569924842</v>
+        <v>47.2011129426503</v>
       </c>
       <c r="V24" t="n">
-        <v>59.47267904092692</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>59.47267904092692</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>52.38353569924842</v>
       </c>
       <c r="U25" t="n">
-        <v>59.47267904092692</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>59.47267904092692</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="W25" t="n">
-        <v>52.38353569924841</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>52.38353569924842</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="T26" t="n">
-        <v>52.38353569924845</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>59.47267904092697</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>59.47267904092697</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2642,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>52.38353569924845</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="G27" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>52.38353569924842</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>59.47267904092697</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="U28" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="X28" t="n">
-        <v>52.38353569924845</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>52.38353569924842</v>
       </c>
     </row>
     <row r="29">
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>59.47267904092697</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>59.47267904092697</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>52.38353569924845</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>53.34574647084392</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>59.47267904092697</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>58.51046826933144</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="F30" t="n">
-        <v>52.38353569924845</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5.182422756598131</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>59.47267904092697</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>59.47267904092697</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>47.2011129426503</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>59.47267904092697</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="S31" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>59.47267904092697</v>
+        <v>52.38353569924842</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.38353569924845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59.47267904092697</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>52.38353569924845</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>52.38353569924842</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="U32" t="n">
-        <v>59.47267904092697</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>59.47267904092697</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>47.20111294265032</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="G33" t="n">
-        <v>59.47267904092697</v>
+        <v>52.38353569924842</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>5.182422756598129</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3164,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>59.47267904092697</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>52.38353569924845</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>59.47267904092697</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>52.38353569924842</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>52.38353569924841</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>58.51046826933143</v>
       </c>
       <c r="G35" t="n">
-        <v>59.47267904092693</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>53.34574647084391</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>59.47267904092693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,25 +3347,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>52.38353569924841</v>
+      </c>
+      <c r="H36" t="n">
         <v>59.47267904092693</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>47.20111294265028</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>5.182422756598129</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
         <v>59.47267904092693</v>
       </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>59.47267904092693</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>59.47267904092693</v>
       </c>
-      <c r="S37" t="n">
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>59.47267904092693</v>
       </c>
-      <c r="T37" t="n">
+      <c r="W37" t="n">
+        <v>59.47267904092693</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>52.38353569924841</v>
-      </c>
-      <c r="U37" t="n">
-        <v>59.47267904092693</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>52.38353569924843</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>52.38353569924841</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>59.47267904092693</v>
-      </c>
-      <c r="V38" t="n">
-        <v>59.47267904092693</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3593,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>52.38353569924843</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>59.47267904092693</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>5.182422756598129</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>47.2011129426503</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
         <v>59.47267904092693</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>59.47267904092693</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>59.47267904092693</v>
       </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>52.38353569924841</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>52.38353569924842</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>59.47267904092693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>59.47267904092692</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,20 +3748,20 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>59.47267904092692</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>59.47267904092692</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>52.38353569924841</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3830,16 +3830,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>47.2011129426503</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>5.182422756598129</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>59.47267904092692</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>59.47267904092692</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>59.47267904092692</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>52.38353569924841</v>
+        <v>59.47267904092693</v>
       </c>
     </row>
     <row r="43">
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="G43" t="n">
-        <v>52.38353569924841</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>52.38353569924842</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>59.47267904092692</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="U43" t="n">
-        <v>59.47267904092692</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>59.47267904092692</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>67.54688281282303</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>52.38353569924842</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.54688281282303</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>67.54688281282303</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="V44" t="n">
-        <v>59.49529438153447</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4064,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>67.54688281282303</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="H45" t="n">
-        <v>65.57552816317418</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>4.626450846972503</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>56.84019818421086</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>52.38353569924842</v>
       </c>
       <c r="V45" t="n">
-        <v>67.54688281282303</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="T46" t="n">
-        <v>67.54688281282303</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="U46" t="n">
-        <v>67.54688281282303</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>52.38353569924842</v>
       </c>
       <c r="W46" t="n">
-        <v>59.49529438153447</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>67.54688281282303</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78.81912104805069</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="C11" t="n">
-        <v>40.9107327025088</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="D11" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="E11" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="F11" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="G11" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="H11" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I11" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J11" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K11" t="n">
-        <v>8.579347327526918</v>
+        <v>8.579347327526891</v>
       </c>
       <c r="L11" t="n">
-        <v>30.4433262173086</v>
+        <v>30.44332621730855</v>
       </c>
       <c r="M11" t="n">
-        <v>67.59733763477419</v>
+        <v>67.59733763477409</v>
       </c>
       <c r="N11" t="n">
-        <v>104.7513490522398</v>
+        <v>104.7513490522396</v>
       </c>
       <c r="O11" t="n">
-        <v>136.7661938505106</v>
+        <v>136.7661938505104</v>
       </c>
       <c r="P11" t="n">
-        <v>150.1172178483459</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.1172178483459</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="R11" t="n">
-        <v>150.1172178483459</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="S11" t="n">
-        <v>150.1172178483459</v>
+        <v>112.2088295028038</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1172178483459</v>
+        <v>74.30044115726199</v>
       </c>
       <c r="U11" t="n">
-        <v>150.1172178483459</v>
+        <v>36.39205281172015</v>
       </c>
       <c r="V11" t="n">
-        <v>150.1172178483459</v>
+        <v>36.39205281172015</v>
       </c>
       <c r="W11" t="n">
-        <v>150.1172178483459</v>
+        <v>36.39205281172015</v>
       </c>
       <c r="X11" t="n">
-        <v>150.1172178483459</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="Y11" t="n">
-        <v>116.7275093935926</v>
+        <v>3.002344356966913</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78.81912104805069</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="C12" t="n">
-        <v>40.9107327025088</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="D12" t="n">
-        <v>3.002344356966917</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="E12" t="n">
-        <v>3.002344356966917</v>
+        <v>78.81912104805059</v>
       </c>
       <c r="F12" t="n">
-        <v>3.002344356966917</v>
+        <v>40.91073270250875</v>
       </c>
       <c r="G12" t="n">
-        <v>3.002344356966917</v>
+        <v>40.91073270250875</v>
       </c>
       <c r="H12" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I12" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J12" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K12" t="n">
-        <v>8.956273498541186</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="L12" t="n">
-        <v>39.08915624175968</v>
+        <v>33.13522710018538</v>
       </c>
       <c r="M12" t="n">
-        <v>76.24316765922528</v>
+        <v>54.60199107769677</v>
       </c>
       <c r="N12" t="n">
-        <v>113.3971790766909</v>
+        <v>91.75600249516232</v>
       </c>
       <c r="O12" t="n">
-        <v>150.1172178483459</v>
+        <v>128.4760412668173</v>
       </c>
       <c r="P12" t="n">
-        <v>150.1172178483459</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.1172178483459</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="R12" t="n">
-        <v>150.1172178483459</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="S12" t="n">
-        <v>150.1172178483459</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="T12" t="n">
-        <v>150.1172178483459</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="U12" t="n">
-        <v>150.1172178483459</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="V12" t="n">
-        <v>150.1172178483459</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="W12" t="n">
-        <v>150.1172178483459</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="X12" t="n">
-        <v>150.1172178483459</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Y12" t="n">
-        <v>116.7275093935926</v>
+        <v>150.1172178483457</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.002344356966917</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="C13" t="n">
-        <v>3.002344356966917</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="D13" t="n">
-        <v>3.002344356966917</v>
+        <v>78.81912104805059</v>
       </c>
       <c r="E13" t="n">
-        <v>3.002344356966917</v>
+        <v>40.91073270250875</v>
       </c>
       <c r="F13" t="n">
-        <v>3.002344356966917</v>
+        <v>40.91073270250875</v>
       </c>
       <c r="G13" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="H13" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I13" t="n">
-        <v>3.002344356966917</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J13" t="n">
-        <v>40.15635577443251</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K13" t="n">
-        <v>75.80919501341467</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="L13" t="n">
-        <v>75.80919501341467</v>
+        <v>38.65518359594903</v>
       </c>
       <c r="M13" t="n">
-        <v>112.9632064308803</v>
+        <v>75.80919501341458</v>
       </c>
       <c r="N13" t="n">
-        <v>112.9632064308803</v>
+        <v>112.9632064308801</v>
       </c>
       <c r="O13" t="n">
-        <v>112.9632064308803</v>
+        <v>112.9632064308801</v>
       </c>
       <c r="P13" t="n">
-        <v>112.9632064308803</v>
+        <v>112.9632064308801</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.1172178483459</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="R13" t="n">
-        <v>112.208829502804</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="S13" t="n">
-        <v>74.3004411572621</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="T13" t="n">
-        <v>36.39205281172021</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="U13" t="n">
-        <v>3.002344356966917</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="V13" t="n">
-        <v>3.002344356966917</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="W13" t="n">
-        <v>3.002344356966917</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="X13" t="n">
-        <v>3.002344356966917</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.002344356966917</v>
+        <v>116.7275093935924</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>74.30044115726199</v>
+        <v>78.81912104805059</v>
       </c>
       <c r="C14" t="n">
-        <v>40.91073270250876</v>
+        <v>78.81912104805059</v>
       </c>
       <c r="D14" t="n">
-        <v>40.91073270250876</v>
+        <v>40.91073270250875</v>
       </c>
       <c r="E14" t="n">
-        <v>3.002344356966914</v>
+        <v>40.91073270250875</v>
       </c>
       <c r="F14" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="G14" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="H14" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I14" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J14" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K14" t="n">
-        <v>8.579347327526889</v>
+        <v>8.579347327526888</v>
       </c>
       <c r="L14" t="n">
-        <v>30.44332621730857</v>
+        <v>30.44332621730856</v>
       </c>
       <c r="M14" t="n">
-        <v>67.59733763477412</v>
+        <v>67.59733763477411</v>
       </c>
       <c r="N14" t="n">
-        <v>104.7513490522397</v>
+        <v>104.7513490522396</v>
       </c>
       <c r="O14" t="n">
-        <v>136.7661938505105</v>
+        <v>136.7661938505104</v>
       </c>
       <c r="P14" t="n">
         <v>150.1172178483457</v>
@@ -5308,13 +5308,13 @@
         <v>150.1172178483457</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1172178483457</v>
+        <v>112.2088295028038</v>
       </c>
       <c r="U14" t="n">
-        <v>150.1172178483457</v>
+        <v>112.2088295028038</v>
       </c>
       <c r="V14" t="n">
-        <v>150.1172178483457</v>
+        <v>112.2088295028038</v>
       </c>
       <c r="W14" t="n">
         <v>112.2088295028038</v>
@@ -5323,7 +5323,7 @@
         <v>112.2088295028038</v>
       </c>
       <c r="Y14" t="n">
-        <v>112.2088295028038</v>
+        <v>78.81912104805059</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>74.30044115726199</v>
+        <v>36.39205281172015</v>
       </c>
       <c r="C15" t="n">
-        <v>74.30044115726199</v>
+        <v>36.39205281172015</v>
       </c>
       <c r="D15" t="n">
-        <v>74.30044115726199</v>
+        <v>36.39205281172015</v>
       </c>
       <c r="E15" t="n">
-        <v>74.30044115726199</v>
+        <v>36.39205281172015</v>
       </c>
       <c r="F15" t="n">
-        <v>36.39205281172014</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="G15" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="H15" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I15" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J15" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K15" t="n">
-        <v>3.002344356966914</v>
+        <v>11.45991954906473</v>
       </c>
       <c r="L15" t="n">
-        <v>33.13522710018538</v>
+        <v>41.5928022922832</v>
       </c>
       <c r="M15" t="n">
-        <v>54.60199107769679</v>
+        <v>78.74681370974875</v>
       </c>
       <c r="N15" t="n">
-        <v>91.75600249516235</v>
+        <v>115.9008251272143</v>
       </c>
       <c r="O15" t="n">
         <v>128.4760412668173</v>
@@ -5384,25 +5384,25 @@
         <v>150.1172178483457</v>
       </c>
       <c r="S15" t="n">
-        <v>150.1172178483457</v>
+        <v>112.2088295028038</v>
       </c>
       <c r="T15" t="n">
-        <v>150.1172178483457</v>
+        <v>74.30044115726199</v>
       </c>
       <c r="U15" t="n">
-        <v>112.2088295028038</v>
+        <v>74.30044115726199</v>
       </c>
       <c r="V15" t="n">
-        <v>74.30044115726199</v>
+        <v>36.39205281172015</v>
       </c>
       <c r="W15" t="n">
-        <v>74.30044115726199</v>
+        <v>36.39205281172015</v>
       </c>
       <c r="X15" t="n">
-        <v>74.30044115726199</v>
+        <v>36.39205281172015</v>
       </c>
       <c r="Y15" t="n">
-        <v>74.30044115726199</v>
+        <v>36.39205281172015</v>
       </c>
     </row>
     <row r="16">
@@ -5412,55 +5412,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.002344356966914</v>
+        <v>36.39205281172015</v>
       </c>
       <c r="C16" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="D16" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="E16" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="F16" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="G16" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="H16" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I16" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J16" t="n">
-        <v>40.15635577443247</v>
+        <v>40.15635577443246</v>
       </c>
       <c r="K16" t="n">
-        <v>40.15635577443247</v>
+        <v>75.80919501341458</v>
       </c>
       <c r="L16" t="n">
-        <v>40.15635577443247</v>
+        <v>75.80919501341458</v>
       </c>
       <c r="M16" t="n">
-        <v>77.31036719189802</v>
+        <v>75.80919501341458</v>
       </c>
       <c r="N16" t="n">
-        <v>114.4643786093636</v>
+        <v>75.80919501341458</v>
       </c>
       <c r="O16" t="n">
-        <v>150.1172178483457</v>
+        <v>75.80919501341458</v>
       </c>
       <c r="P16" t="n">
-        <v>150.1172178483457</v>
+        <v>112.9632064308801</v>
       </c>
       <c r="Q16" t="n">
         <v>150.1172178483457</v>
       </c>
       <c r="R16" t="n">
-        <v>150.1172178483457</v>
+        <v>112.2088295028038</v>
       </c>
       <c r="S16" t="n">
         <v>112.2088295028038</v>
@@ -5469,19 +5469,19 @@
         <v>74.30044115726199</v>
       </c>
       <c r="U16" t="n">
-        <v>36.39205281172014</v>
+        <v>74.30044115726199</v>
       </c>
       <c r="V16" t="n">
-        <v>36.39205281172014</v>
+        <v>74.30044115726199</v>
       </c>
       <c r="W16" t="n">
-        <v>3.002344356966914</v>
+        <v>74.30044115726199</v>
       </c>
       <c r="X16" t="n">
-        <v>3.002344356966914</v>
+        <v>74.30044115726199</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.002344356966914</v>
+        <v>74.30044115726199</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>135.7582393512711</v>
+        <v>141.2252603413629</v>
       </c>
       <c r="C17" t="n">
-        <v>89.89396930016599</v>
+        <v>141.2252603413629</v>
       </c>
       <c r="D17" t="n">
-        <v>89.89396930016599</v>
+        <v>95.36099029025775</v>
       </c>
       <c r="E17" t="n">
-        <v>89.89396930016599</v>
+        <v>49.49672023915263</v>
       </c>
       <c r="F17" t="n">
-        <v>44.02969924906088</v>
+        <v>49.49672023915263</v>
       </c>
       <c r="G17" t="n">
-        <v>44.02969924906088</v>
+        <v>49.49672023915263</v>
       </c>
       <c r="H17" t="n">
-        <v>44.02969924906088</v>
+        <v>3.632450188047524</v>
       </c>
       <c r="I17" t="n">
         <v>3.632450188047524</v>
@@ -5524,7 +5524,7 @@
         <v>39.58351986958232</v>
       </c>
       <c r="M17" t="n">
-        <v>81.98047155039913</v>
+        <v>81.9804715503991</v>
       </c>
       <c r="N17" t="n">
         <v>126.9320426274872</v>
@@ -5560,7 +5560,7 @@
         <v>181.6225094023762</v>
       </c>
       <c r="Y17" t="n">
-        <v>181.6225094023762</v>
+        <v>141.2252603413629</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="C18" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="D18" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="E18" t="n">
         <v>3.632450188047524</v>
@@ -5600,10 +5600,10 @@
         <v>14.66977561506492</v>
       </c>
       <c r="L18" t="n">
-        <v>26.5064019772718</v>
+        <v>48.27145091008538</v>
       </c>
       <c r="M18" t="n">
-        <v>71.45797305435991</v>
+        <v>93.2230219871735</v>
       </c>
       <c r="N18" t="n">
         <v>116.409544131448</v>
@@ -5630,16 +5630,16 @@
         <v>44.02969924906088</v>
       </c>
       <c r="V18" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="W18" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="X18" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="C19" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="D19" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="E19" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="F19" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="G19" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="H19" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="I19" t="n">
         <v>3.632450188047524</v>
@@ -5682,43 +5682,43 @@
         <v>3.632450188047524</v>
       </c>
       <c r="M19" t="n">
+        <v>3.632450188047524</v>
+      </c>
+      <c r="N19" t="n">
         <v>46.76779617111186</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>91.71936724819997</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>136.6709383252881</v>
-      </c>
-      <c r="P19" t="n">
-        <v>181.6225094023762</v>
       </c>
       <c r="Q19" t="n">
         <v>181.6225094023762</v>
       </c>
       <c r="R19" t="n">
-        <v>141.2252603413629</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="S19" t="n">
-        <v>95.36099029025775</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="T19" t="n">
-        <v>49.49672023915263</v>
+        <v>89.89396930016599</v>
       </c>
       <c r="U19" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="V19" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="W19" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="X19" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.632450188047524</v>
+        <v>44.02969924906088</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.632450188047526</v>
+        <v>95.36099029025775</v>
       </c>
       <c r="C20" t="n">
-        <v>3.632450188047526</v>
+        <v>95.36099029025775</v>
       </c>
       <c r="D20" t="n">
-        <v>3.632450188047526</v>
+        <v>95.36099029025775</v>
       </c>
       <c r="E20" t="n">
-        <v>3.632450188047526</v>
+        <v>95.36099029025775</v>
       </c>
       <c r="F20" t="n">
-        <v>3.632450188047526</v>
+        <v>49.49672023915263</v>
       </c>
       <c r="G20" t="n">
-        <v>3.632450188047526</v>
+        <v>49.49672023915263</v>
       </c>
       <c r="H20" t="n">
-        <v>3.632450188047526</v>
+        <v>3.632450188047524</v>
       </c>
       <c r="I20" t="n">
-        <v>3.632450188047526</v>
+        <v>3.632450188047524</v>
       </c>
       <c r="J20" t="n">
-        <v>3.632450188047526</v>
+        <v>3.632450188047524</v>
       </c>
       <c r="K20" t="n">
-        <v>13.00760177093456</v>
+        <v>13.00760177093458</v>
       </c>
       <c r="L20" t="n">
-        <v>39.58351986958235</v>
+        <v>39.58351986958232</v>
       </c>
       <c r="M20" t="n">
-        <v>81.98047155039916</v>
+        <v>81.9804715503991</v>
       </c>
       <c r="N20" t="n">
-        <v>126.9320426274873</v>
+        <v>126.9320426274872</v>
       </c>
       <c r="O20" t="n">
         <v>163.9777557138802</v>
       </c>
       <c r="P20" t="n">
-        <v>181.6225094023763</v>
+        <v>181.6225094023762</v>
       </c>
       <c r="Q20" t="n">
-        <v>181.6225094023763</v>
+        <v>181.6225094023762</v>
       </c>
       <c r="R20" t="n">
-        <v>181.6225094023763</v>
+        <v>181.6225094023762</v>
       </c>
       <c r="S20" t="n">
-        <v>181.6225094023763</v>
+        <v>181.6225094023762</v>
       </c>
       <c r="T20" t="n">
-        <v>181.6225094023763</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="U20" t="n">
-        <v>141.2252603413629</v>
+        <v>95.36099029025775</v>
       </c>
       <c r="V20" t="n">
-        <v>141.2252603413629</v>
+        <v>95.36099029025775</v>
       </c>
       <c r="W20" t="n">
-        <v>141.2252603413629</v>
+        <v>95.36099029025775</v>
       </c>
       <c r="X20" t="n">
-        <v>95.36099029025777</v>
+        <v>95.36099029025775</v>
       </c>
       <c r="Y20" t="n">
-        <v>49.49672023915265</v>
+        <v>95.36099029025775</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89.89396930016601</v>
+        <v>89.89396930016599</v>
       </c>
       <c r="C21" t="n">
-        <v>44.02969924906088</v>
+        <v>89.89396930016599</v>
       </c>
       <c r="D21" t="n">
         <v>44.02969924906088</v>
       </c>
       <c r="E21" t="n">
-        <v>3.632450188047526</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="F21" t="n">
-        <v>3.632450188047526</v>
+        <v>9.956694302724081</v>
       </c>
       <c r="G21" t="n">
-        <v>3.632450188047526</v>
+        <v>9.956694302724081</v>
       </c>
       <c r="H21" t="n">
-        <v>3.632450188047526</v>
+        <v>9.956694302724081</v>
       </c>
       <c r="I21" t="n">
-        <v>3.632450188047526</v>
+        <v>3.632450188047524</v>
       </c>
       <c r="J21" t="n">
-        <v>3.632450188047526</v>
+        <v>3.632450188047524</v>
       </c>
       <c r="K21" t="n">
         <v>14.66977561506492</v>
@@ -5840,43 +5840,43 @@
         <v>48.27145091008538</v>
       </c>
       <c r="M21" t="n">
-        <v>71.45797305435997</v>
+        <v>71.45797305435991</v>
       </c>
       <c r="N21" t="n">
-        <v>116.4095441314481</v>
+        <v>116.409544131448</v>
       </c>
       <c r="O21" t="n">
         <v>156.9306452111043</v>
       </c>
       <c r="P21" t="n">
-        <v>181.6225094023763</v>
+        <v>181.6225094023762</v>
       </c>
       <c r="Q21" t="n">
-        <v>181.6225094023763</v>
+        <v>181.6225094023762</v>
       </c>
       <c r="R21" t="n">
-        <v>181.6225094023763</v>
+        <v>181.6225094023762</v>
       </c>
       <c r="S21" t="n">
-        <v>181.6225094023763</v>
+        <v>181.6225094023762</v>
       </c>
       <c r="T21" t="n">
-        <v>181.6225094023763</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="U21" t="n">
         <v>135.7582393512711</v>
       </c>
       <c r="V21" t="n">
-        <v>89.89396930016601</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="W21" t="n">
-        <v>89.89396930016601</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="X21" t="n">
-        <v>89.89396930016601</v>
+        <v>89.89396930016599</v>
       </c>
       <c r="Y21" t="n">
-        <v>89.89396930016601</v>
+        <v>89.89396930016599</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.49672023915265</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="C22" t="n">
-        <v>49.49672023915265</v>
+        <v>3.632450188047524</v>
       </c>
       <c r="D22" t="n">
-        <v>49.49672023915265</v>
+        <v>3.632450188047524</v>
       </c>
       <c r="E22" t="n">
-        <v>49.49672023915265</v>
+        <v>3.632450188047524</v>
       </c>
       <c r="F22" t="n">
-        <v>49.49672023915265</v>
+        <v>3.632450188047524</v>
       </c>
       <c r="G22" t="n">
-        <v>3.632450188047526</v>
+        <v>3.632450188047524</v>
       </c>
       <c r="H22" t="n">
-        <v>3.632450188047526</v>
+        <v>3.632450188047524</v>
       </c>
       <c r="I22" t="n">
-        <v>3.632450188047526</v>
+        <v>3.632450188047524</v>
       </c>
       <c r="J22" t="n">
-        <v>3.632450188047526</v>
+        <v>42.05300768203702</v>
       </c>
       <c r="K22" t="n">
-        <v>3.632450188047526</v>
+        <v>87.00457875912514</v>
       </c>
       <c r="L22" t="n">
-        <v>3.632450188047526</v>
+        <v>131.9561498362133</v>
       </c>
       <c r="M22" t="n">
-        <v>48.58402126513565</v>
+        <v>131.9561498362133</v>
       </c>
       <c r="N22" t="n">
-        <v>93.53559234222378</v>
+        <v>133.4392588089056</v>
       </c>
       <c r="O22" t="n">
-        <v>138.4871634193119</v>
+        <v>133.4392588089056</v>
       </c>
       <c r="P22" t="n">
-        <v>181.6225094023763</v>
+        <v>136.6709383252881</v>
       </c>
       <c r="Q22" t="n">
-        <v>181.6225094023763</v>
+        <v>181.6225094023762</v>
       </c>
       <c r="R22" t="n">
-        <v>181.6225094023763</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="S22" t="n">
-        <v>181.6225094023763</v>
+        <v>89.89396930016599</v>
       </c>
       <c r="T22" t="n">
-        <v>181.6225094023763</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="U22" t="n">
-        <v>181.6225094023763</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="V22" t="n">
-        <v>181.6225094023763</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="W22" t="n">
-        <v>141.2252603413629</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="X22" t="n">
-        <v>95.36099029025777</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="Y22" t="n">
-        <v>49.49672023915265</v>
+        <v>44.02969924906088</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.757814323274154</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="C23" t="n">
-        <v>4.757814323274154</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="D23" t="n">
-        <v>4.757814323274154</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="E23" t="n">
-        <v>4.757814323274154</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="F23" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="G23" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="H23" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="I23" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="J23" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="K23" t="n">
-        <v>21.50623620569112</v>
+        <v>21.50623620569121</v>
       </c>
       <c r="L23" t="n">
-        <v>57.22934810006487</v>
+        <v>57.22934810006495</v>
       </c>
       <c r="M23" t="n">
-        <v>109.8043153541832</v>
+        <v>109.8043153541833</v>
       </c>
       <c r="N23" t="n">
-        <v>165.0985929373365</v>
+        <v>165.0985929373366</v>
       </c>
       <c r="O23" t="n">
-        <v>211.9106304927796</v>
+        <v>211.9106304927797</v>
       </c>
       <c r="P23" t="n">
-        <v>237.8907161637077</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="Q23" t="n">
-        <v>237.8907161637077</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="R23" t="n">
-        <v>237.8907161637077</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="S23" t="n">
-        <v>177.8173029910542</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="T23" t="n">
-        <v>117.7438898184008</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="U23" t="n">
-        <v>57.6704766457473</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="V23" t="n">
-        <v>4.757814323274154</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="W23" t="n">
-        <v>4.757814323274154</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="X23" t="n">
-        <v>4.757814323274154</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.757814323274154</v>
+        <v>124.9046406685811</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>124.9046406685811</v>
+        <v>130.1394111297913</v>
       </c>
       <c r="C24" t="n">
-        <v>124.9046406685811</v>
+        <v>130.1394111297913</v>
       </c>
       <c r="D24" t="n">
-        <v>124.9046406685811</v>
+        <v>130.1394111297913</v>
       </c>
       <c r="E24" t="n">
-        <v>124.9046406685811</v>
+        <v>130.1394111297913</v>
       </c>
       <c r="F24" t="n">
-        <v>64.83122749592761</v>
+        <v>130.1394111297913</v>
       </c>
       <c r="G24" t="n">
-        <v>4.757814323274154</v>
+        <v>70.06599795713787</v>
       </c>
       <c r="H24" t="n">
-        <v>4.757814323274154</v>
+        <v>9.992584784484388</v>
       </c>
       <c r="I24" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="J24" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="K24" t="n">
-        <v>20.80315753179807</v>
+        <v>20.80315753179808</v>
       </c>
       <c r="L24" t="n">
-        <v>61.13873076183444</v>
+        <v>61.13873076183445</v>
       </c>
       <c r="M24" t="n">
         <v>116.0479738249749</v>
       </c>
       <c r="N24" t="n">
-        <v>159.3765851605195</v>
+        <v>174.9259260754926</v>
       </c>
       <c r="O24" t="n">
-        <v>207.2766128391215</v>
+        <v>207.2766128391216</v>
       </c>
       <c r="P24" t="n">
-        <v>237.8907161637077</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="Q24" t="n">
-        <v>237.8907161637077</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="R24" t="n">
-        <v>237.8907161637077</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="S24" t="n">
-        <v>237.8907161637077</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="T24" t="n">
-        <v>237.8907161637077</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="U24" t="n">
-        <v>184.9780538412345</v>
+        <v>130.1394111297913</v>
       </c>
       <c r="V24" t="n">
-        <v>124.9046406685811</v>
+        <v>130.1394111297913</v>
       </c>
       <c r="W24" t="n">
-        <v>124.9046406685811</v>
+        <v>130.1394111297913</v>
       </c>
       <c r="X24" t="n">
-        <v>124.9046406685811</v>
+        <v>130.1394111297913</v>
       </c>
       <c r="Y24" t="n">
-        <v>124.9046406685811</v>
+        <v>130.1394111297913</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="C25" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="D25" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="E25" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="F25" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="G25" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="H25" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="I25" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="J25" t="n">
         <v>45.01662613153413</v>
       </c>
       <c r="K25" t="n">
-        <v>45.01662613153413</v>
+        <v>103.8945783820518</v>
       </c>
       <c r="L25" t="n">
-        <v>45.97982481261008</v>
+        <v>162.7725306325695</v>
       </c>
       <c r="M25" t="n">
-        <v>104.8577770631277</v>
+        <v>173.5508282885606</v>
       </c>
       <c r="N25" t="n">
-        <v>120.1348116626724</v>
+        <v>179.0127639131901</v>
       </c>
       <c r="O25" t="n">
-        <v>120.1348116626724</v>
+        <v>179.0127639131901</v>
       </c>
       <c r="P25" t="n">
-        <v>179.01276391319</v>
+        <v>179.0127639131901</v>
       </c>
       <c r="Q25" t="n">
-        <v>237.8907161637077</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="R25" t="n">
-        <v>177.8173029910542</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="S25" t="n">
-        <v>177.8173029910542</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="T25" t="n">
-        <v>177.8173029910542</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="U25" t="n">
-        <v>117.7438898184008</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="V25" t="n">
-        <v>57.6704766457473</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="W25" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="X25" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274156</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.757814323274157</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="C26" t="n">
-        <v>4.757814323274157</v>
+        <v>57.67047664574731</v>
       </c>
       <c r="D26" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="E26" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="F26" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="G26" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="H26" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="I26" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="J26" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="K26" t="n">
-        <v>21.5062362056912</v>
+        <v>21.50623620569124</v>
       </c>
       <c r="L26" t="n">
-        <v>57.22934810006495</v>
+        <v>57.22934810006498</v>
       </c>
       <c r="M26" t="n">
         <v>109.8043153541833</v>
@@ -6241,37 +6241,37 @@
         <v>165.0985929373366</v>
       </c>
       <c r="O26" t="n">
-        <v>211.9106304927798</v>
+        <v>211.9106304927797</v>
       </c>
       <c r="P26" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="Q26" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="R26" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="S26" t="n">
-        <v>237.8907161637079</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="T26" t="n">
-        <v>184.9780538412347</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="U26" t="n">
-        <v>124.9046406685812</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="V26" t="n">
-        <v>64.83122749592766</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="W26" t="n">
-        <v>4.757814323274157</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="X26" t="n">
-        <v>4.757814323274157</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.757814323274157</v>
+        <v>117.7438898184008</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>177.8173029910544</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="C27" t="n">
-        <v>177.8173029910544</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="D27" t="n">
-        <v>177.8173029910544</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="E27" t="n">
-        <v>124.9046406685812</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="F27" t="n">
-        <v>64.83122749592766</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="G27" t="n">
-        <v>4.757814323274157</v>
+        <v>57.67047664574731</v>
       </c>
       <c r="H27" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="I27" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="J27" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="K27" t="n">
         <v>20.80315753179808</v>
@@ -6317,40 +6317,40 @@
         <v>116.0479738249749</v>
       </c>
       <c r="N27" t="n">
-        <v>159.1291423774312</v>
+        <v>174.9259260754926</v>
       </c>
       <c r="O27" t="n">
-        <v>207.0291700560331</v>
+        <v>222.8259537540945</v>
       </c>
       <c r="P27" t="n">
-        <v>237.6432733806193</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="Q27" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="R27" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="S27" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="T27" t="n">
-        <v>237.8907161637079</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="U27" t="n">
-        <v>237.8907161637079</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="V27" t="n">
-        <v>177.8173029910544</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="W27" t="n">
-        <v>177.8173029910544</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="X27" t="n">
-        <v>177.8173029910544</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.8173029910544</v>
+        <v>177.8173029910543</v>
       </c>
     </row>
     <row r="28">
@@ -6360,61 +6360,61 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="C28" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="D28" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="E28" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="F28" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="G28" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="H28" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="I28" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="J28" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="K28" t="n">
-        <v>4.757814323274157</v>
+        <v>63.63576657379183</v>
       </c>
       <c r="L28" t="n">
-        <v>63.63576657379186</v>
+        <v>120.1348116626724</v>
       </c>
       <c r="M28" t="n">
-        <v>122.5137188243096</v>
+        <v>179.0127639131901</v>
       </c>
       <c r="N28" t="n">
-        <v>181.3916710748273</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="O28" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="P28" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="Q28" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="R28" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="S28" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="T28" t="n">
-        <v>177.8173029910544</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="U28" t="n">
         <v>117.7438898184008</v>
@@ -6423,13 +6423,13 @@
         <v>117.7438898184008</v>
       </c>
       <c r="W28" t="n">
-        <v>57.67047664574734</v>
+        <v>57.67047664574731</v>
       </c>
       <c r="X28" t="n">
-        <v>4.757814323274157</v>
+        <v>57.67047664574731</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>177.8173029910544</v>
+        <v>58.642406718066</v>
       </c>
       <c r="C29" t="n">
-        <v>117.7438898184008</v>
+        <v>58.642406718066</v>
       </c>
       <c r="D29" t="n">
-        <v>117.7438898184008</v>
+        <v>58.642406718066</v>
       </c>
       <c r="E29" t="n">
-        <v>57.67047664574734</v>
+        <v>58.642406718066</v>
       </c>
       <c r="F29" t="n">
-        <v>57.67047664574734</v>
+        <v>58.642406718066</v>
       </c>
       <c r="G29" t="n">
-        <v>57.67047664574734</v>
+        <v>58.642406718066</v>
       </c>
       <c r="H29" t="n">
-        <v>4.757814323274157</v>
+        <v>58.642406718066</v>
       </c>
       <c r="I29" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="J29" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="K29" t="n">
         <v>21.50623620569127</v>
       </c>
       <c r="L29" t="n">
-        <v>57.22934810006501</v>
+        <v>57.22934810006507</v>
       </c>
       <c r="M29" t="n">
         <v>109.8043153541834</v>
@@ -6481,34 +6481,34 @@
         <v>211.9106304927798</v>
       </c>
       <c r="P29" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="Q29" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="R29" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="S29" t="n">
-        <v>237.8907161637079</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="T29" t="n">
-        <v>237.8907161637079</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="U29" t="n">
-        <v>237.8907161637079</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="V29" t="n">
-        <v>237.8907161637079</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="W29" t="n">
-        <v>237.8907161637079</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="X29" t="n">
-        <v>177.8173029910544</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="Y29" t="n">
-        <v>177.8173029910544</v>
+        <v>58.642406718066</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>117.7438898184008</v>
+        <v>130.1394111297913</v>
       </c>
       <c r="C30" t="n">
-        <v>117.7438898184008</v>
+        <v>130.1394111297913</v>
       </c>
       <c r="D30" t="n">
-        <v>117.7438898184008</v>
+        <v>130.1394111297913</v>
       </c>
       <c r="E30" t="n">
-        <v>117.7438898184008</v>
+        <v>70.06599795713787</v>
       </c>
       <c r="F30" t="n">
-        <v>64.83122749592766</v>
+        <v>70.06599795713787</v>
       </c>
       <c r="G30" t="n">
-        <v>4.757814323274157</v>
+        <v>9.992584784484389</v>
       </c>
       <c r="H30" t="n">
-        <v>4.757814323274157</v>
+        <v>9.992584784484389</v>
       </c>
       <c r="I30" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="J30" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="K30" t="n">
         <v>20.80315753179808</v>
       </c>
       <c r="L30" t="n">
-        <v>61.13873076183445</v>
+        <v>61.13873076183443</v>
       </c>
       <c r="M30" t="n">
         <v>116.0479738249749</v>
@@ -6557,37 +6557,37 @@
         <v>174.9259260754926</v>
       </c>
       <c r="O30" t="n">
-        <v>222.8259537540946</v>
+        <v>207.029170056033</v>
       </c>
       <c r="P30" t="n">
-        <v>237.8907161637079</v>
+        <v>237.6432733806192</v>
       </c>
       <c r="Q30" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="R30" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="S30" t="n">
-        <v>177.8173029910544</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="T30" t="n">
-        <v>177.8173029910544</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="U30" t="n">
-        <v>177.8173029910544</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="V30" t="n">
-        <v>117.7438898184008</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="W30" t="n">
-        <v>117.7438898184008</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="X30" t="n">
-        <v>117.7438898184008</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="Y30" t="n">
-        <v>117.7438898184008</v>
+        <v>190.2128243024448</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.83122749592766</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="C31" t="n">
-        <v>64.83122749592766</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="D31" t="n">
-        <v>64.83122749592766</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="E31" t="n">
-        <v>64.83122749592766</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="F31" t="n">
-        <v>64.83122749592766</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="G31" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="H31" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="I31" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="J31" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="K31" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="L31" t="n">
-        <v>63.63576657379186</v>
+        <v>61.25685941215476</v>
       </c>
       <c r="M31" t="n">
-        <v>114.672876038043</v>
+        <v>120.1348116626724</v>
       </c>
       <c r="N31" t="n">
-        <v>120.1348116626725</v>
+        <v>179.0127639131901</v>
       </c>
       <c r="O31" t="n">
-        <v>179.0127639131902</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="P31" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="Q31" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="R31" t="n">
-        <v>237.8907161637079</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="S31" t="n">
-        <v>177.8173029910544</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="T31" t="n">
-        <v>177.8173029910544</v>
+        <v>57.67047664574731</v>
       </c>
       <c r="U31" t="n">
-        <v>177.8173029910544</v>
+        <v>57.67047664574731</v>
       </c>
       <c r="V31" t="n">
-        <v>177.8173029910544</v>
+        <v>57.67047664574731</v>
       </c>
       <c r="W31" t="n">
-        <v>177.8173029910544</v>
+        <v>57.67047664574731</v>
       </c>
       <c r="X31" t="n">
-        <v>117.7438898184008</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="Y31" t="n">
-        <v>64.83122749592766</v>
+        <v>4.757814323274156</v>
       </c>
     </row>
     <row r="32">
@@ -6676,70 +6676,70 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>57.67047664574734</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="C32" t="n">
-        <v>4.757814323274157</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="D32" t="n">
-        <v>4.757814323274157</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="E32" t="n">
-        <v>4.757814323274157</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="F32" t="n">
-        <v>4.757814323274157</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="G32" t="n">
-        <v>4.757814323274157</v>
+        <v>57.67047664574731</v>
       </c>
       <c r="H32" t="n">
-        <v>4.757814323274157</v>
+        <v>57.67047664574731</v>
       </c>
       <c r="I32" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="J32" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="K32" t="n">
-        <v>21.50623620569127</v>
+        <v>21.50623620569121</v>
       </c>
       <c r="L32" t="n">
-        <v>57.22934810006501</v>
+        <v>57.22934810006495</v>
       </c>
       <c r="M32" t="n">
-        <v>109.8043153541834</v>
+        <v>109.8043153541833</v>
       </c>
       <c r="N32" t="n">
-        <v>165.0985929373367</v>
+        <v>165.0985929373366</v>
       </c>
       <c r="O32" t="n">
-        <v>211.9106304927798</v>
+        <v>211.9106304927796</v>
       </c>
       <c r="P32" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="R32" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="S32" t="n">
-        <v>237.8907161637079</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="T32" t="n">
-        <v>237.8907161637079</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="U32" t="n">
-        <v>177.8173029910544</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="V32" t="n">
-        <v>177.8173029910544</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="W32" t="n">
-        <v>177.8173029910544</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="X32" t="n">
         <v>117.7438898184008</v>
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>117.7438898184008</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="C33" t="n">
         <v>117.7438898184008</v>
@@ -6767,19 +6767,19 @@
         <v>117.7438898184008</v>
       </c>
       <c r="F33" t="n">
-        <v>70.0659979571379</v>
+        <v>57.67047664574731</v>
       </c>
       <c r="G33" t="n">
-        <v>9.992584784484389</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="H33" t="n">
-        <v>9.992584784484389</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="I33" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="J33" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="K33" t="n">
         <v>20.80315753179808</v>
@@ -6791,40 +6791,40 @@
         <v>116.0479738249749</v>
       </c>
       <c r="N33" t="n">
-        <v>159.3765851605197</v>
+        <v>174.9259260754926</v>
       </c>
       <c r="O33" t="n">
-        <v>207.2766128391217</v>
+        <v>222.8259537540945</v>
       </c>
       <c r="P33" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="Q33" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="R33" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="S33" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="T33" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="U33" t="n">
-        <v>177.8173029910544</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="V33" t="n">
-        <v>117.7438898184008</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="W33" t="n">
-        <v>117.7438898184008</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="X33" t="n">
-        <v>117.7438898184008</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="Y33" t="n">
-        <v>117.7438898184008</v>
+        <v>177.8173029910543</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>117.7438898184008</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="C34" t="n">
-        <v>64.83122749592766</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="D34" t="n">
-        <v>64.83122749592766</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="E34" t="n">
-        <v>64.83122749592766</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="F34" t="n">
-        <v>64.83122749592766</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="G34" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="H34" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="I34" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="J34" t="n">
-        <v>4.757814323274157</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="K34" t="n">
-        <v>4.757814323274157</v>
+        <v>63.63576657379183</v>
       </c>
       <c r="L34" t="n">
-        <v>63.63576657379186</v>
+        <v>64.59896525486778</v>
       </c>
       <c r="M34" t="n">
-        <v>120.1348116626725</v>
+        <v>123.4769175053854</v>
       </c>
       <c r="N34" t="n">
-        <v>179.0127639131902</v>
+        <v>182.3548697559031</v>
       </c>
       <c r="O34" t="n">
-        <v>237.8907161637079</v>
+        <v>182.3548697559031</v>
       </c>
       <c r="P34" t="n">
-        <v>237.8907161637079</v>
+        <v>182.3548697559031</v>
       </c>
       <c r="Q34" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="R34" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="S34" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="T34" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="U34" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="V34" t="n">
-        <v>237.8907161637079</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="W34" t="n">
-        <v>177.8173029910544</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="X34" t="n">
-        <v>117.7438898184008</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.7438898184008</v>
+        <v>124.9046406685811</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>177.8173029910542</v>
+      </c>
+      <c r="C35" t="n">
         <v>117.7438898184008</v>
       </c>
-      <c r="C35" t="n">
-        <v>64.83122749592764</v>
-      </c>
       <c r="D35" t="n">
-        <v>64.83122749592764</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="E35" t="n">
-        <v>64.83122749592764</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="F35" t="n">
-        <v>64.83122749592764</v>
+        <v>58.64240671806599</v>
       </c>
       <c r="G35" t="n">
-        <v>4.757814323274155</v>
+        <v>58.64240671806599</v>
       </c>
       <c r="H35" t="n">
-        <v>4.757814323274155</v>
+        <v>58.64240671806599</v>
       </c>
       <c r="I35" t="n">
         <v>4.757814323274155</v>
@@ -6940,7 +6940,7 @@
         <v>4.757814323274155</v>
       </c>
       <c r="K35" t="n">
-        <v>21.50623620569119</v>
+        <v>21.50623620569118</v>
       </c>
       <c r="L35" t="n">
         <v>57.22934810006493</v>
@@ -6949,7 +6949,7 @@
         <v>109.8043153541833</v>
       </c>
       <c r="N35" t="n">
-        <v>165.0985929373365</v>
+        <v>165.0985929373366</v>
       </c>
       <c r="O35" t="n">
         <v>211.9106304927796</v>
@@ -6982,7 +6982,7 @@
         <v>177.8173029910542</v>
       </c>
       <c r="Y35" t="n">
-        <v>117.7438898184008</v>
+        <v>177.8173029910542</v>
       </c>
     </row>
     <row r="36">
@@ -6995,22 +6995,22 @@
         <v>117.7438898184008</v>
       </c>
       <c r="C36" t="n">
-        <v>57.6704766457473</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="D36" t="n">
-        <v>57.6704766457473</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="E36" t="n">
-        <v>9.992584784484386</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="F36" t="n">
-        <v>9.992584784484386</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="G36" t="n">
-        <v>9.992584784484386</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="H36" t="n">
-        <v>9.992584784484386</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="I36" t="n">
         <v>4.757814323274155</v>
@@ -7019,13 +7019,13 @@
         <v>4.757814323274155</v>
       </c>
       <c r="K36" t="n">
-        <v>5.006373833736497</v>
+        <v>20.80315753179807</v>
       </c>
       <c r="L36" t="n">
-        <v>45.34194706377286</v>
+        <v>61.13873076183444</v>
       </c>
       <c r="M36" t="n">
-        <v>100.2511901269134</v>
+        <v>116.0479738249749</v>
       </c>
       <c r="N36" t="n">
         <v>159.129142377431</v>
@@ -7046,16 +7046,16 @@
         <v>237.8907161637077</v>
       </c>
       <c r="T36" t="n">
-        <v>177.8173029910542</v>
+        <v>237.8907161637077</v>
       </c>
       <c r="U36" t="n">
         <v>177.8173029910542</v>
       </c>
       <c r="V36" t="n">
-        <v>177.8173029910542</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="W36" t="n">
-        <v>177.8173029910542</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="X36" t="n">
         <v>117.7438898184008</v>
@@ -7095,49 +7095,49 @@
         <v>4.757814323274155</v>
       </c>
       <c r="J37" t="n">
-        <v>4.757814323274155</v>
+        <v>45.01662613153413</v>
       </c>
       <c r="K37" t="n">
-        <v>4.757814323274155</v>
+        <v>103.8945783820518</v>
       </c>
       <c r="L37" t="n">
-        <v>63.63576657379182</v>
+        <v>104.8577770631278</v>
       </c>
       <c r="M37" t="n">
-        <v>122.5137188243095</v>
+        <v>107.1929396426442</v>
       </c>
       <c r="N37" t="n">
-        <v>181.3916710748271</v>
+        <v>112.6548752672737</v>
       </c>
       <c r="O37" t="n">
-        <v>237.8907161637077</v>
+        <v>120.1348116626724</v>
       </c>
       <c r="P37" t="n">
-        <v>237.8907161637077</v>
+        <v>179.0127639131901</v>
       </c>
       <c r="Q37" t="n">
         <v>237.8907161637077</v>
       </c>
       <c r="R37" t="n">
+        <v>237.8907161637077</v>
+      </c>
+      <c r="S37" t="n">
+        <v>237.8907161637077</v>
+      </c>
+      <c r="T37" t="n">
         <v>177.8173029910542</v>
       </c>
-      <c r="S37" t="n">
+      <c r="U37" t="n">
+        <v>177.8173029910542</v>
+      </c>
+      <c r="V37" t="n">
         <v>117.7438898184008</v>
       </c>
-      <c r="T37" t="n">
-        <v>64.83122749592764</v>
-      </c>
-      <c r="U37" t="n">
-        <v>4.757814323274155</v>
-      </c>
-      <c r="V37" t="n">
-        <v>4.757814323274155</v>
-      </c>
       <c r="W37" t="n">
-        <v>4.757814323274155</v>
+        <v>57.6704766457473</v>
       </c>
       <c r="X37" t="n">
-        <v>4.757814323274155</v>
+        <v>57.6704766457473</v>
       </c>
       <c r="Y37" t="n">
         <v>4.757814323274155</v>
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>57.67047664574732</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="C38" t="n">
-        <v>57.67047664574732</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="D38" t="n">
-        <v>57.67047664574732</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="E38" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="F38" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="G38" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="H38" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="I38" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="J38" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="K38" t="n">
-        <v>21.50623620569124</v>
+        <v>21.50623620569121</v>
       </c>
       <c r="L38" t="n">
-        <v>57.22934810006499</v>
+        <v>57.22934810006495</v>
       </c>
       <c r="M38" t="n">
-        <v>109.8043153541832</v>
+        <v>109.8043153541833</v>
       </c>
       <c r="N38" t="n">
         <v>165.0985929373365</v>
       </c>
       <c r="O38" t="n">
-        <v>211.9106304927796</v>
+        <v>211.9106304927797</v>
       </c>
       <c r="P38" t="n">
         <v>237.8907161637077</v>
@@ -7207,19 +7207,19 @@
         <v>177.8173029910542</v>
       </c>
       <c r="U38" t="n">
-        <v>117.7438898184008</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="V38" t="n">
-        <v>57.67047664574732</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="W38" t="n">
-        <v>57.67047664574732</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="X38" t="n">
-        <v>57.67047664574732</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="Y38" t="n">
-        <v>57.67047664574732</v>
+        <v>64.83122749592764</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>117.7438898184008</v>
+        <v>70.06599795713785</v>
       </c>
       <c r="C39" t="n">
-        <v>117.7438898184008</v>
+        <v>70.06599795713785</v>
       </c>
       <c r="D39" t="n">
-        <v>117.7438898184008</v>
+        <v>70.06599795713785</v>
       </c>
       <c r="E39" t="n">
-        <v>117.7438898184008</v>
+        <v>70.06599795713785</v>
       </c>
       <c r="F39" t="n">
-        <v>64.83122749592762</v>
+        <v>70.06599795713785</v>
       </c>
       <c r="G39" t="n">
-        <v>4.757814323274154</v>
+        <v>70.06599795713785</v>
       </c>
       <c r="H39" t="n">
-        <v>4.757814323274154</v>
+        <v>9.992584784484386</v>
       </c>
       <c r="I39" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="J39" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="K39" t="n">
-        <v>5.253816616824999</v>
+        <v>20.80315753179807</v>
       </c>
       <c r="L39" t="n">
-        <v>45.58938984686137</v>
+        <v>61.13873076183444</v>
       </c>
       <c r="M39" t="n">
-        <v>100.4986329100019</v>
+        <v>116.0479738249749</v>
       </c>
       <c r="N39" t="n">
-        <v>159.3765851605195</v>
+        <v>159.129142377431</v>
       </c>
       <c r="O39" t="n">
-        <v>207.2766128391215</v>
+        <v>207.029170056033</v>
       </c>
       <c r="P39" t="n">
-        <v>237.8907161637077</v>
+        <v>237.6432733806192</v>
       </c>
       <c r="Q39" t="n">
         <v>237.8907161637077</v>
@@ -7280,25 +7280,25 @@
         <v>237.8907161637077</v>
       </c>
       <c r="S39" t="n">
-        <v>237.8907161637077</v>
+        <v>177.8173029910542</v>
       </c>
       <c r="T39" t="n">
         <v>177.8173029910542</v>
       </c>
       <c r="U39" t="n">
-        <v>177.8173029910542</v>
+        <v>130.1394111297913</v>
       </c>
       <c r="V39" t="n">
-        <v>117.7438898184008</v>
+        <v>130.1394111297913</v>
       </c>
       <c r="W39" t="n">
-        <v>117.7438898184008</v>
+        <v>130.1394111297913</v>
       </c>
       <c r="X39" t="n">
-        <v>117.7438898184008</v>
+        <v>130.1394111297913</v>
       </c>
       <c r="Y39" t="n">
-        <v>117.7438898184008</v>
+        <v>70.06599795713785</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.757814323274154</v>
+        <v>177.8173029910542</v>
       </c>
       <c r="C40" t="n">
-        <v>4.757814323274154</v>
+        <v>177.8173029910542</v>
       </c>
       <c r="D40" t="n">
-        <v>4.757814323274154</v>
+        <v>177.8173029910542</v>
       </c>
       <c r="E40" t="n">
-        <v>4.757814323274154</v>
+        <v>177.8173029910542</v>
       </c>
       <c r="F40" t="n">
-        <v>4.757814323274154</v>
+        <v>177.8173029910542</v>
       </c>
       <c r="G40" t="n">
-        <v>4.757814323274154</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="H40" t="n">
-        <v>4.757814323274154</v>
+        <v>57.6704766457473</v>
       </c>
       <c r="I40" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="J40" t="n">
-        <v>4.757814323274154</v>
+        <v>45.01662613153413</v>
       </c>
       <c r="K40" t="n">
-        <v>63.63576657379181</v>
+        <v>45.01662613153413</v>
       </c>
       <c r="L40" t="n">
-        <v>64.59896525486776</v>
+        <v>103.8945783820518</v>
       </c>
       <c r="M40" t="n">
-        <v>66.93412783438423</v>
+        <v>162.7725306325695</v>
       </c>
       <c r="N40" t="n">
-        <v>125.8120800849019</v>
+        <v>168.234466257199</v>
       </c>
       <c r="O40" t="n">
-        <v>179.01276391319</v>
+        <v>179.0127639131901</v>
       </c>
       <c r="P40" t="n">
-        <v>179.01276391319</v>
+        <v>237.8907161637077</v>
       </c>
       <c r="Q40" t="n">
         <v>237.8907161637077</v>
@@ -7371,13 +7371,13 @@
         <v>177.8173029910542</v>
       </c>
       <c r="W40" t="n">
-        <v>124.9046406685811</v>
+        <v>177.8173029910542</v>
       </c>
       <c r="X40" t="n">
-        <v>124.9046406685811</v>
+        <v>177.8173029910542</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.83122749592762</v>
+        <v>177.8173029910542</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.8173029910542</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="C41" t="n">
-        <v>177.8173029910542</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="D41" t="n">
-        <v>177.8173029910542</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="E41" t="n">
         <v>117.7438898184008</v>
@@ -7402,22 +7402,22 @@
         <v>57.6704766457473</v>
       </c>
       <c r="G41" t="n">
-        <v>4.757814323274154</v>
+        <v>57.6704766457473</v>
       </c>
       <c r="H41" t="n">
-        <v>4.757814323274154</v>
+        <v>57.6704766457473</v>
       </c>
       <c r="I41" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="J41" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="K41" t="n">
-        <v>21.50623620569121</v>
+        <v>21.50623620569118</v>
       </c>
       <c r="L41" t="n">
-        <v>57.22934810006497</v>
+        <v>57.22934810006493</v>
       </c>
       <c r="M41" t="n">
         <v>109.8043153541833</v>
@@ -7447,16 +7447,16 @@
         <v>237.8907161637077</v>
       </c>
       <c r="V41" t="n">
-        <v>237.8907161637077</v>
+        <v>177.8173029910542</v>
       </c>
       <c r="W41" t="n">
-        <v>237.8907161637077</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="X41" t="n">
-        <v>237.8907161637077</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="Y41" t="n">
-        <v>237.8907161637077</v>
+        <v>117.7438898184008</v>
       </c>
     </row>
     <row r="42">
@@ -7466,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.757814323274154</v>
+        <v>177.8173029910542</v>
       </c>
       <c r="C42" t="n">
-        <v>4.757814323274154</v>
+        <v>177.8173029910542</v>
       </c>
       <c r="D42" t="n">
-        <v>4.757814323274154</v>
+        <v>177.8173029910542</v>
       </c>
       <c r="E42" t="n">
-        <v>4.757814323274154</v>
+        <v>177.8173029910542</v>
       </c>
       <c r="F42" t="n">
-        <v>4.757814323274154</v>
+        <v>130.1394111297913</v>
       </c>
       <c r="G42" t="n">
-        <v>4.757814323274154</v>
+        <v>70.06599795713785</v>
       </c>
       <c r="H42" t="n">
-        <v>4.757814323274154</v>
+        <v>9.992584784484386</v>
       </c>
       <c r="I42" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="J42" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="K42" t="n">
         <v>20.80315753179807</v>
@@ -7502,13 +7502,13 @@
         <v>116.0479738249749</v>
       </c>
       <c r="N42" t="n">
-        <v>174.9259260754926</v>
+        <v>159.129142377431</v>
       </c>
       <c r="O42" t="n">
-        <v>222.8259537540945</v>
+        <v>207.029170056033</v>
       </c>
       <c r="P42" t="n">
-        <v>237.6432733806191</v>
+        <v>237.6432733806192</v>
       </c>
       <c r="Q42" t="n">
         <v>237.8907161637077</v>
@@ -7523,19 +7523,19 @@
         <v>237.8907161637077</v>
       </c>
       <c r="U42" t="n">
+        <v>237.8907161637077</v>
+      </c>
+      <c r="V42" t="n">
+        <v>237.8907161637077</v>
+      </c>
+      <c r="W42" t="n">
+        <v>237.8907161637077</v>
+      </c>
+      <c r="X42" t="n">
+        <v>237.8907161637077</v>
+      </c>
+      <c r="Y42" t="n">
         <v>177.8173029910542</v>
-      </c>
-      <c r="V42" t="n">
-        <v>177.8173029910542</v>
-      </c>
-      <c r="W42" t="n">
-        <v>117.7438898184008</v>
-      </c>
-      <c r="X42" t="n">
-        <v>57.6704766457473</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>4.757814323274154</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57.6704766457473</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="C43" t="n">
-        <v>57.6704766457473</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="D43" t="n">
-        <v>57.6704766457473</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="E43" t="n">
-        <v>57.6704766457473</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="F43" t="n">
-        <v>57.6704766457473</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="G43" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="H43" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="I43" t="n">
-        <v>4.757814323274154</v>
+        <v>4.757814323274155</v>
       </c>
       <c r="J43" t="n">
         <v>45.01662613153413</v>
       </c>
       <c r="K43" t="n">
-        <v>61.25685941215474</v>
+        <v>103.8945783820518</v>
       </c>
       <c r="L43" t="n">
+        <v>104.8577770631278</v>
+      </c>
+      <c r="M43" t="n">
+        <v>107.1929396426442</v>
+      </c>
+      <c r="N43" t="n">
+        <v>112.6548752672737</v>
+      </c>
+      <c r="O43" t="n">
         <v>120.1348116626724</v>
       </c>
-      <c r="M43" t="n">
-        <v>179.01276391319</v>
-      </c>
-      <c r="N43" t="n">
-        <v>237.8907161637077</v>
-      </c>
-      <c r="O43" t="n">
-        <v>237.8907161637077</v>
-      </c>
       <c r="P43" t="n">
-        <v>237.8907161637077</v>
+        <v>179.0127639131901</v>
       </c>
       <c r="Q43" t="n">
         <v>237.8907161637077</v>
       </c>
       <c r="R43" t="n">
-        <v>237.8907161637077</v>
+        <v>184.9780538412346</v>
       </c>
       <c r="S43" t="n">
-        <v>237.8907161637077</v>
+        <v>184.9780538412346</v>
       </c>
       <c r="T43" t="n">
-        <v>177.8173029910542</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="U43" t="n">
-        <v>117.7438898184008</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="V43" t="n">
-        <v>117.7438898184008</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="W43" t="n">
-        <v>57.6704766457473</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="X43" t="n">
-        <v>57.6704766457473</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.6704766457473</v>
+        <v>124.9046406685811</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>73.63292518343295</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="C44" t="n">
-        <v>73.63292518343295</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="D44" t="n">
-        <v>73.63292518343295</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="E44" t="n">
-        <v>73.63292518343295</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="F44" t="n">
-        <v>5.403750625025842</v>
+        <v>57.67047664574731</v>
       </c>
       <c r="G44" t="n">
-        <v>5.403750625025842</v>
+        <v>57.67047664574731</v>
       </c>
       <c r="H44" t="n">
-        <v>5.403750625025842</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="I44" t="n">
-        <v>5.403750625025842</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="J44" t="n">
-        <v>5.403750625025847</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="K44" t="n">
-        <v>25.95285051464657</v>
+        <v>21.50623620569121</v>
       </c>
       <c r="L44" t="n">
-        <v>66.39103955589508</v>
+        <v>57.22934810006495</v>
       </c>
       <c r="M44" t="n">
-        <v>124.2124386340154</v>
+        <v>109.8043153541833</v>
       </c>
       <c r="N44" t="n">
-        <v>184.8380407930586</v>
+        <v>165.0985929373366</v>
       </c>
       <c r="O44" t="n">
-        <v>236.6842969669482</v>
+        <v>211.9106304927797</v>
       </c>
       <c r="P44" t="n">
-        <v>266.9609717579564</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="Q44" t="n">
-        <v>270.1875312512921</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="R44" t="n">
-        <v>270.1875312512921</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="S44" t="n">
-        <v>201.958356692885</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="T44" t="n">
-        <v>201.958356692885</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="U44" t="n">
-        <v>133.7291821344779</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="V44" t="n">
-        <v>73.63292518343295</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="W44" t="n">
-        <v>73.63292518343295</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="X44" t="n">
-        <v>73.63292518343295</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="Y44" t="n">
-        <v>73.63292518343295</v>
+        <v>117.7438898184008</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>144.544015092672</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="C45" t="n">
-        <v>144.544015092672</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="D45" t="n">
-        <v>144.544015092672</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="E45" t="n">
-        <v>144.544015092672</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="F45" t="n">
-        <v>144.544015092672</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="G45" t="n">
-        <v>76.31484053426492</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="H45" t="n">
-        <v>10.07693329873544</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="I45" t="n">
-        <v>5.403750625025842</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="J45" t="n">
-        <v>5.403750625025842</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="K45" t="n">
-        <v>24.03056206523381</v>
+        <v>20.80315753179808</v>
       </c>
       <c r="L45" t="n">
-        <v>67.83723790573596</v>
+        <v>61.13873076183445</v>
       </c>
       <c r="M45" t="n">
-        <v>116.1731334021479</v>
+        <v>116.0479738249749</v>
       </c>
       <c r="N45" t="n">
-        <v>182.5289826313745</v>
+        <v>174.9259260754926</v>
       </c>
       <c r="O45" t="n">
-        <v>234.2326039532435</v>
+        <v>222.8259537540945</v>
       </c>
       <c r="P45" t="n">
-        <v>267.8994265072906</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="Q45" t="n">
-        <v>270.1875312512921</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="R45" t="n">
-        <v>270.1875312512921</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="S45" t="n">
-        <v>212.7731896510791</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="T45" t="n">
-        <v>212.7731896510791</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="U45" t="n">
-        <v>212.7731896510791</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="V45" t="n">
-        <v>144.544015092672</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="W45" t="n">
-        <v>144.544015092672</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="X45" t="n">
-        <v>144.544015092672</v>
+        <v>124.9046406685811</v>
       </c>
       <c r="Y45" t="n">
-        <v>144.544015092672</v>
+        <v>124.9046406685811</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.403750625025842</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="C46" t="n">
-        <v>5.403750625025842</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="D46" t="n">
-        <v>5.403750625025842</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="E46" t="n">
-        <v>5.403750625025842</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="F46" t="n">
-        <v>5.403750625025842</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="G46" t="n">
-        <v>5.403750625025842</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="H46" t="n">
-        <v>5.403750625025842</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="I46" t="n">
-        <v>5.403750625025842</v>
+        <v>4.757814323274156</v>
       </c>
       <c r="J46" t="n">
-        <v>5.403750625025842</v>
+        <v>45.01662613153413</v>
       </c>
       <c r="K46" t="n">
-        <v>72.27516460972063</v>
+        <v>103.8945783820518</v>
       </c>
       <c r="L46" t="n">
-        <v>139.1465785944154</v>
+        <v>104.8577770631278</v>
       </c>
       <c r="M46" t="n">
-        <v>143.5826501945805</v>
+        <v>107.1929396426442</v>
       </c>
       <c r="N46" t="n">
-        <v>151.0955399191101</v>
+        <v>112.6548752672737</v>
       </c>
       <c r="O46" t="n">
-        <v>151.0955399191101</v>
+        <v>120.1348116626724</v>
       </c>
       <c r="P46" t="n">
-        <v>203.3161172665973</v>
+        <v>179.0127639131901</v>
       </c>
       <c r="Q46" t="n">
-        <v>270.1875312512921</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="R46" t="n">
-        <v>270.1875312512921</v>
+        <v>237.8907161637078</v>
       </c>
       <c r="S46" t="n">
-        <v>270.1875312512921</v>
+        <v>177.8173029910543</v>
       </c>
       <c r="T46" t="n">
-        <v>201.958356692885</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="U46" t="n">
-        <v>133.7291821344779</v>
+        <v>117.7438898184008</v>
       </c>
       <c r="V46" t="n">
-        <v>133.7291821344779</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="W46" t="n">
-        <v>73.63292518343295</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="X46" t="n">
-        <v>5.403750625025842</v>
+        <v>64.83122749592764</v>
       </c>
       <c r="Y46" t="n">
-        <v>5.403750625025842</v>
+        <v>64.83122749592764</v>
       </c>
     </row>
   </sheetData>
@@ -8218,7 +8218,7 @@
         <v>32.32750642064433</v>
       </c>
       <c r="K5" t="n">
-        <v>27.69388552783374</v>
+        <v>27.69388552783373</v>
       </c>
       <c r="L5" t="n">
         <v>19.2605385526292</v>
@@ -8379,7 +8379,7 @@
         <v>27.07747822466578</v>
       </c>
       <c r="L7" t="n">
-        <v>22.41565970901927</v>
+        <v>22.41565970901928</v>
       </c>
       <c r="M7" t="n">
         <v>22.30123629540936</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.12864625545149</v>
+        <v>29.1286462554515</v>
       </c>
       <c r="K8" t="n">
-        <v>22.89962335916381</v>
+        <v>22.89962335916383</v>
       </c>
       <c r="L8" t="n">
-        <v>13.31283239473387</v>
+        <v>13.31283239473389</v>
       </c>
       <c r="M8" t="n">
         <v>1.857412192921856</v>
@@ -8467,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>5.455334146684052</v>
+        <v>5.455334146684066</v>
       </c>
       <c r="P8" t="n">
-        <v>18.77004728651482</v>
+        <v>18.77004728651484</v>
       </c>
       <c r="Q8" t="n">
         <v>33.80255651301093</v>
@@ -8613,10 +8613,10 @@
         <v>34.91943921434874</v>
       </c>
       <c r="K10" t="n">
-        <v>25.11327702096816</v>
+        <v>25.11327702096817</v>
       </c>
       <c r="L10" t="n">
-        <v>19.90215841909198</v>
+        <v>19.90215841909199</v>
       </c>
       <c r="M10" t="n">
         <v>19.6511016040668</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10.09069110280002</v>
+        <v>10.09069110280004</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.579696329610385</v>
+        <v>9.579696329610414</v>
       </c>
       <c r="R11" t="n">
-        <v>40.51258854612288</v>
+        <v>40.51258854612289</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>13.70815661144291</v>
+        <v>13.70815661144292</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.808809210202178</v>
+        <v>5.808809210202192</v>
       </c>
       <c r="R12" t="n">
-        <v>34.25063875717578</v>
+        <v>34.25063875717579</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.33509747550563</v>
+        <v>27.80579301341918</v>
       </c>
       <c r="K13" t="n">
-        <v>49.43634001534073</v>
+        <v>13.42337108707594</v>
       </c>
       <c r="L13" t="n">
-        <v>4.943103517458681</v>
+        <v>40.95607244572346</v>
       </c>
       <c r="M13" t="n">
-        <v>41.40818008664593</v>
+        <v>41.40818008664589</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5722022158511066</v>
+        <v>38.10150667793754</v>
       </c>
       <c r="O13" t="n">
-        <v>8.838421371704094</v>
+        <v>8.838421371704108</v>
       </c>
       <c r="P13" t="n">
-        <v>15.36087546843633</v>
+        <v>15.36087546843635</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.90483302298948</v>
+        <v>70.90483302298944</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.33509747550561</v>
+        <v>65.33509747550559</v>
       </c>
       <c r="K16" t="n">
-        <v>13.42337108707594</v>
+        <v>49.43634001534071</v>
       </c>
       <c r="L16" t="n">
         <v>4.943103517458695</v>
       </c>
       <c r="M16" t="n">
-        <v>41.40818008664591</v>
+        <v>3.878875624559477</v>
       </c>
       <c r="N16" t="n">
-        <v>38.10150667793754</v>
+        <v>0.572202215851128</v>
       </c>
       <c r="O16" t="n">
-        <v>44.85139029996887</v>
+        <v>8.838421371704108</v>
       </c>
       <c r="P16" t="n">
-        <v>15.36087546843635</v>
+        <v>52.89017993052276</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.37552856090302</v>
+        <v>70.90483302298944</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9330,10 +9330,10 @@
         <v>2.931723680530631</v>
       </c>
       <c r="M19" t="n">
-        <v>45.32921415133175</v>
+        <v>1.7581576027819</v>
       </c>
       <c r="N19" t="n">
-        <v>43.90753747918762</v>
+        <v>42.07296667714341</v>
       </c>
       <c r="O19" t="n">
         <v>52.33179889323142</v>
@@ -9342,7 +9342,7 @@
         <v>59.13024273889765</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.24266689538117</v>
+        <v>77.64829424597522</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>26.84929912863322</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>11.85155781106148</v>
+        <v>57.25718516165553</v>
       </c>
       <c r="L22" t="n">
-        <v>2.931723680530631</v>
+        <v>48.33735103112468</v>
       </c>
       <c r="M22" t="n">
-        <v>47.16378495337597</v>
+        <v>1.7581576027819</v>
       </c>
       <c r="N22" t="n">
-        <v>43.90753747918763</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>52.33179889323143</v>
+        <v>6.926171542637363</v>
       </c>
       <c r="P22" t="n">
-        <v>57.29567193685345</v>
+        <v>16.98893813212426</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.24266689538117</v>
+        <v>77.64829424597522</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>8.800227985042923</v>
+        <v>68.27290702596986</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>58.49975108024417</v>
       </c>
       <c r="M25" t="n">
-        <v>57.11392896060726</v>
+        <v>8.52841926916634</v>
       </c>
       <c r="N25" t="n">
-        <v>9.914241388803191</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>3.213959012517144</v>
       </c>
       <c r="P25" t="n">
-        <v>70.02085530518117</v>
+        <v>10.54817626425424</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.51614413447265</v>
+        <v>89.51614413447268</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10035,19 +10035,19 @@
         <v>24.99247658896607</v>
       </c>
       <c r="K28" t="n">
-        <v>8.800227985042923</v>
+        <v>68.27290702596986</v>
       </c>
       <c r="L28" t="n">
-        <v>58.4997510802442</v>
+        <v>56.09681455333804</v>
       </c>
       <c r="M28" t="n">
-        <v>57.11392896060732</v>
+        <v>57.11392896060729</v>
       </c>
       <c r="N28" t="n">
-        <v>53.95557234938201</v>
+        <v>53.95557234938198</v>
       </c>
       <c r="O28" t="n">
-        <v>60.28370152653798</v>
+        <v>3.213959012517144</v>
       </c>
       <c r="P28" t="n">
         <v>10.54817626425424</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.561529487768169</v>
+        <v>2.561529487768183</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>34.9401506804666</v>
+        <v>34.94015068046661</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>9.223839533450708</v>
+        <v>9.223839533450715</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>24.99247658896607</v>
       </c>
       <c r="K31" t="n">
-        <v>8.800227985042923</v>
+        <v>8.80022798504293</v>
       </c>
       <c r="L31" t="n">
-        <v>58.4997510802442</v>
+        <v>56.09681455333805</v>
       </c>
       <c r="M31" t="n">
-        <v>49.19388574215623</v>
+        <v>57.1139289606073</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>53.95557234938199</v>
       </c>
       <c r="O31" t="n">
-        <v>62.68663805344411</v>
+        <v>62.68663805344409</v>
       </c>
       <c r="P31" t="n">
-        <v>70.02085530518121</v>
+        <v>10.54817626425425</v>
       </c>
       <c r="Q31" t="n">
-        <v>30.04346509354573</v>
+        <v>30.04346509354574</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>24.99247658896607</v>
       </c>
       <c r="K34" t="n">
-        <v>8.800227985042923</v>
+        <v>68.27290702596986</v>
       </c>
       <c r="L34" t="n">
-        <v>58.4997510802442</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>54.71099243370119</v>
+        <v>57.11392896060728</v>
       </c>
       <c r="N34" t="n">
-        <v>53.95557234938201</v>
+        <v>53.95557234938199</v>
       </c>
       <c r="O34" t="n">
-        <v>62.68663805344411</v>
+        <v>3.213959012517144</v>
       </c>
       <c r="P34" t="n">
         <v>10.54817626425424</v>
       </c>
       <c r="Q34" t="n">
-        <v>30.04346509354573</v>
+        <v>86.14027964688377</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.99247658896607</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>8.800227985042923</v>
+        <v>68.27290702596986</v>
       </c>
       <c r="L37" t="n">
-        <v>58.49975108024415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>57.11392896060728</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>53.95557234938198</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>60.28370152653795</v>
+        <v>10.76945032100066</v>
       </c>
       <c r="P37" t="n">
-        <v>10.54817626425424</v>
+        <v>70.02085530518117</v>
       </c>
       <c r="Q37" t="n">
-        <v>30.04346509354573</v>
+        <v>89.51614413447267</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.99247658896607</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>68.27290702596984</v>
+        <v>8.800227985042923</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>58.49975108024416</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>57.11392896060728</v>
       </c>
       <c r="N40" t="n">
-        <v>53.95557234938198</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>56.95202348553549</v>
+        <v>14.10112836200311</v>
       </c>
       <c r="P40" t="n">
-        <v>10.54817626425424</v>
+        <v>70.02085530518117</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.51614413447265</v>
+        <v>30.04346509354573</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>25.20450402607384</v>
+        <v>68.27290702596986</v>
       </c>
       <c r="L43" t="n">
-        <v>58.49975108024415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>57.11392896060726</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>53.95557234938197</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>3.213959012517144</v>
+        <v>10.76945032100066</v>
       </c>
       <c r="P43" t="n">
-        <v>10.54817626425424</v>
+        <v>70.02085530518117</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.04346509354573</v>
+        <v>89.51614413447267</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.561529487768169</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>33.04432686349118</v>
+        <v>34.9401506804666</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>7.698210118769744</v>
+        <v>9.223839533450708</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.30110983325018</v>
+        <v>31.30370070620054</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>24.03534572259288</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>74.77425076543065</v>
+        <v>68.27290702596986</v>
       </c>
       <c r="L46" t="n">
-        <v>64.56123552737915</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11469,13 +11469,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.300435711710882</v>
+        <v>10.76945032100069</v>
       </c>
       <c r="P46" t="n">
-        <v>61.65888443580408</v>
+        <v>70.02085530518119</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.45673180630916</v>
+        <v>89.51614413447268</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>368.5896634057581</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>368.4940403177761</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>362.8899861457836</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -23278,7 +23278,7 @@
         <v>300.1694450707848</v>
       </c>
       <c r="I11" t="n">
-        <v>56.76574385712077</v>
+        <v>56.76574385712078</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>116.9510516642238</v>
+        <v>79.4217472021374</v>
       </c>
       <c r="T11" t="n">
-        <v>216.7230808039846</v>
+        <v>179.1937763418982</v>
       </c>
       <c r="U11" t="n">
-        <v>254.4302849789525</v>
+        <v>216.9009805168661</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23323,10 +23323,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>363.5811524825313</v>
       </c>
       <c r="Y11" t="n">
-        <v>363.8714949511851</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.3706978471443</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>95.12581607645728</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>78.19888174071502</v>
+        <v>82.67237483259578</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>81.75858338550887</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>70.34097655723404</v>
       </c>
       <c r="G12" t="n">
         <v>105.5215890835718</v>
       </c>
       <c r="H12" t="n">
-        <v>66.1898869291027</v>
+        <v>28.6605824670163</v>
       </c>
       <c r="I12" t="n">
-        <v>6.81660357746247</v>
+        <v>6.816603577462475</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>124.7521286696025</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23421,16 +23421,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>120.3703937682327</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>121.7724025182773</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.2436954710736</v>
+        <v>127.7143910089872</v>
       </c>
       <c r="H13" t="n">
         <v>145.1401126844127</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>31.86421293572587</v>
+        <v>36.33770602760664</v>
       </c>
       <c r="S13" t="n">
-        <v>141.1744962060037</v>
+        <v>178.7038006680902</v>
       </c>
       <c r="T13" t="n">
-        <v>198.1960372115234</v>
+        <v>235.7253416736098</v>
       </c>
       <c r="U13" t="n">
-        <v>246.896125971351</v>
+        <v>279.9519373415568</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>368.5896634057581</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>372.9675334096569</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>362.8899861457836</v>
       </c>
       <c r="E14" t="n">
-        <v>372.6675088661858</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>379.2908034637629</v>
       </c>
       <c r="G14" t="n">
         <v>403.8959782144399</v>
@@ -23548,7 +23548,7 @@
         <v>116.9510516642238</v>
       </c>
       <c r="T14" t="n">
-        <v>216.7230808039846</v>
+        <v>179.1937763418982</v>
       </c>
       <c r="U14" t="n">
         <v>254.4302849789525</v>
@@ -23557,13 +23557,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>342.3933933940967</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>363.8714949511851</v>
       </c>
     </row>
     <row r="15">
@@ -23585,10 +23585,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>70.34097655723403</v>
+        <v>74.81446964911476</v>
       </c>
       <c r="G15" t="n">
-        <v>72.46577771336614</v>
+        <v>105.5215890835718</v>
       </c>
       <c r="H15" t="n">
         <v>66.18988692910271</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>99.50587214380286</v>
+        <v>61.97656768171645</v>
       </c>
       <c r="T15" t="n">
-        <v>156.1417168646031</v>
+        <v>118.6124124025167</v>
       </c>
       <c r="U15" t="n">
-        <v>157.8217731282328</v>
+        <v>195.3510775903192</v>
       </c>
       <c r="V15" t="n">
         <v>174.0451072748101</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>148.2934048680175</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>136.326627343695</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>69.39351739781233</v>
+        <v>31.86421293572592</v>
       </c>
       <c r="S16" t="n">
-        <v>141.1744962060038</v>
+        <v>178.7038006680902</v>
       </c>
       <c r="T16" t="n">
         <v>198.1960372115234</v>
       </c>
       <c r="U16" t="n">
-        <v>242.4226328794704</v>
+        <v>279.9519373415568</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>243.2231564760087</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>360.7133405172505</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>360.6177174292685</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>355.013663257276</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>364.7911859776782</v>
       </c>
       <c r="F17" t="n">
-        <v>371.4144805752553</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>403.865817831984</v>
       </c>
       <c r="H17" t="n">
-        <v>299.8605650539583</v>
+        <v>254.4549377033642</v>
       </c>
       <c r="I17" t="n">
-        <v>15.60970914208628</v>
+        <v>55.60298571248951</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>356.9340297509876</v>
       </c>
     </row>
     <row r="18">
@@ -23819,7 +23819,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>79.29461127719206</v>
       </c>
       <c r="F18" t="n">
         <v>107.8702810193205</v>
@@ -23870,7 +23870,7 @@
         <v>149.9443885800361</v>
       </c>
       <c r="V18" t="n">
-        <v>171.5811351664933</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
         <v>211.1008365810345</v>
@@ -23910,7 +23910,7 @@
         <v>145.0198283820698</v>
       </c>
       <c r="I19" t="n">
-        <v>104.7256786086731</v>
+        <v>64.73240203826992</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.79193187097973</v>
+        <v>23.3795810907889</v>
       </c>
       <c r="S19" t="n">
-        <v>133.062401326094</v>
+        <v>178.468028676688</v>
       </c>
       <c r="T19" t="n">
         <v>190.2619089834441</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>360.7133405172505</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -23980,13 +23980,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>371.4144805752553</v>
       </c>
       <c r="G20" t="n">
         <v>403.865817831984</v>
       </c>
       <c r="H20" t="n">
-        <v>299.8605650539583</v>
+        <v>254.4549377033642</v>
       </c>
       <c r="I20" t="n">
         <v>55.60298571248951</v>
@@ -24022,7 +24022,7 @@
         <v>116.2637719490099</v>
       </c>
       <c r="T20" t="n">
-        <v>216.5910537297839</v>
+        <v>171.1854263791899</v>
       </c>
       <c r="U20" t="n">
         <v>214.4345955779528</v>
@@ -24034,10 +24034,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>351.2313365021429</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>351.5216789707968</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24050,16 +24050,16 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>87.24949318794967</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>70.32255885220744</v>
       </c>
       <c r="E21" t="n">
-        <v>79.29461127719208</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>74.13800612244702</v>
       </c>
       <c r="G21" t="n">
         <v>105.5054518562984</v>
@@ -24068,7 +24068,7 @@
         <v>66.03403528675115</v>
       </c>
       <c r="I21" t="n">
-        <v>6.26100167352979</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,19 +24101,19 @@
         <v>99.20613022492962</v>
       </c>
       <c r="T21" t="n">
-        <v>156.076672514321</v>
+        <v>110.671045163727</v>
       </c>
       <c r="U21" t="n">
-        <v>149.9443885800361</v>
+        <v>195.3500159306301</v>
       </c>
       <c r="V21" t="n">
-        <v>166.1687843863024</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>129.1570946919021</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -24129,7 +24129,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>129.3891621434974</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24141,7 +24141,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>119.824539211218</v>
+        <v>165.2301665618121</v>
       </c>
       <c r="H22" t="n">
         <v>145.0198283820698</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.78520844138295</v>
+        <v>23.3795810907889</v>
       </c>
       <c r="S22" t="n">
-        <v>178.468028676688</v>
+        <v>133.062401326094</v>
       </c>
       <c r="T22" t="n">
-        <v>235.6675363340381</v>
+        <v>190.2619089834441</v>
       </c>
       <c r="U22" t="n">
         <v>279.9511994010516</v>
@@ -24189,13 +24189,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>236.2856912758111</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>190.5547961683194</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>177.0827142745289</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>346.6462888269176</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24217,7 +24217,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>357.3474288849224</v>
       </c>
       <c r="G23" t="n">
         <v>403.8072680818602</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>55.45689047713817</v>
+        <v>114.9295695180651</v>
       </c>
       <c r="T23" t="n">
         <v>156.8620731576903</v>
       </c>
       <c r="U23" t="n">
-        <v>194.9505091274192</v>
+        <v>202.0396524690977</v>
       </c>
       <c r="V23" t="n">
-        <v>293.9556434176357</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -24296,16 +24296,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>48.39760197839354</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>46.00144593727457</v>
+        <v>46.00144593727455</v>
       </c>
       <c r="H24" t="n">
-        <v>65.73148359565771</v>
+        <v>6.258804554730766</v>
       </c>
       <c r="I24" t="n">
-        <v>5.182422756598129</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24338,13 +24338,13 @@
         <v>98.62424720413911</v>
       </c>
       <c r="T24" t="n">
-        <v>155.9504032118166</v>
+        <v>96.47772417088962</v>
       </c>
       <c r="U24" t="n">
-        <v>142.9644192525596</v>
+        <v>148.1468420091577</v>
       </c>
       <c r="V24" t="n">
-        <v>152.1017326959696</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
         <v>211.1008365810345</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>8.13163133163852</v>
+        <v>8.131631331638495</v>
       </c>
       <c r="S25" t="n">
         <v>178.0103292027852</v>
       </c>
       <c r="T25" t="n">
-        <v>235.5553199789341</v>
+        <v>183.1717842796857</v>
       </c>
       <c r="U25" t="n">
-        <v>220.4770878109106</v>
+        <v>279.9497668518375</v>
       </c>
       <c r="V25" t="n">
         <v>211.6742085689463</v>
       </c>
       <c r="W25" t="n">
-        <v>223.895432146966</v>
+        <v>216.8062888052874</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -24445,10 +24445,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>346.5506657389356</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>348.0357549086216</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>114.9295695180651</v>
+        <v>55.45689047713815</v>
       </c>
       <c r="T26" t="n">
-        <v>163.9512164993688</v>
+        <v>216.3347521986172</v>
       </c>
       <c r="U26" t="n">
-        <v>194.9505091274191</v>
+        <v>254.4231881683461</v>
       </c>
       <c r="V26" t="n">
-        <v>286.8665000759572</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>320.4500188152562</v>
@@ -24530,16 +24530,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
-        <v>66.90435214834685</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>48.39760197839349</v>
+        <v>48.39760197839352</v>
       </c>
       <c r="G27" t="n">
-        <v>46.00144593727452</v>
+        <v>46.00144593727455</v>
       </c>
       <c r="H27" t="n">
-        <v>65.73148359565771</v>
+        <v>13.34794789640929</v>
       </c>
       <c r="I27" t="n">
         <v>5.182422756598129</v>
@@ -24575,13 +24575,13 @@
         <v>98.62424720413911</v>
       </c>
       <c r="T27" t="n">
-        <v>155.9504032118166</v>
+        <v>96.47772417088962</v>
       </c>
       <c r="U27" t="n">
         <v>195.347954951808</v>
       </c>
       <c r="V27" t="n">
-        <v>152.1017326959695</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
         <v>211.1008365810345</v>
@@ -24657,7 +24657,7 @@
         <v>176.0826409380072</v>
       </c>
       <c r="U28" t="n">
-        <v>220.4770878109105</v>
+        <v>220.4770878109106</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24666,10 +24666,10 @@
         <v>216.8062888052874</v>
       </c>
       <c r="X28" t="n">
-        <v>183.576887819665</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>170.1048059258745</v>
       </c>
     </row>
     <row r="29">
@@ -24682,13 +24682,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>346.5506657389356</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>350.7241342873453</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -24697,10 +24697,10 @@
         <v>403.8072680818602</v>
       </c>
       <c r="H29" t="n">
-        <v>246.8774067262551</v>
+        <v>299.2609424255035</v>
       </c>
       <c r="I29" t="n">
-        <v>53.34574647084391</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>114.9295695180651</v>
+        <v>55.45689047713815</v>
       </c>
       <c r="T29" t="n">
-        <v>216.3347521986172</v>
+        <v>156.8620731576903</v>
       </c>
       <c r="U29" t="n">
         <v>254.4231881683461</v>
@@ -24745,10 +24745,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>337.16428481181</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>338.4168380520593</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>138.9000023092308</v>
+        <v>79.42732326830381</v>
       </c>
       <c r="C30" t="n">
         <v>132.6551205385437</v>
@@ -24767,19 +24767,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>59.81520880666834</v>
       </c>
       <c r="F30" t="n">
-        <v>55.48674532007201</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>46.00144593727453</v>
+        <v>46.00144593727455</v>
       </c>
       <c r="H30" t="n">
         <v>65.73148359565771</v>
       </c>
       <c r="I30" t="n">
-        <v>5.182422756598129</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>39.15156816321214</v>
+        <v>98.62424720413911</v>
       </c>
       <c r="T30" t="n">
         <v>155.9504032118166</v>
@@ -24818,7 +24818,7 @@
         <v>195.347954951808</v>
       </c>
       <c r="V30" t="n">
-        <v>152.1017326959695</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
         <v>211.1008365810345</v>
@@ -24827,7 +24827,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
-        <v>157.8079400398083</v>
+        <v>110.606827097158</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>105.7312241186268</v>
+        <v>165.2039031595537</v>
       </c>
       <c r="H31" t="n">
         <v>144.7863228601726</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.60431037256544</v>
+        <v>8.131631331638495</v>
       </c>
       <c r="S31" t="n">
         <v>118.5376501618583</v>
       </c>
       <c r="T31" t="n">
-        <v>235.5553199789341</v>
+        <v>176.0826409380072</v>
       </c>
       <c r="U31" t="n">
         <v>279.9497668518375</v>
@@ -24903,10 +24903,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>176.4877444779865</v>
+        <v>183.576887819665</v>
       </c>
       <c r="Y31" t="n">
-        <v>170.1048059258745</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>346.6462888269176</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>353.6398090806141</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -24931,13 +24931,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>403.8072680818602</v>
+        <v>344.3345890409333</v>
       </c>
       <c r="H32" t="n">
         <v>299.2609424255035</v>
       </c>
       <c r="I32" t="n">
-        <v>53.34574647084391</v>
+        <v>0.962210771595494</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>114.9295695180651</v>
+        <v>55.45689047713815</v>
       </c>
       <c r="T32" t="n">
-        <v>216.3347521986172</v>
+        <v>156.8620731576903</v>
       </c>
       <c r="U32" t="n">
-        <v>194.9505091274191</v>
+        <v>254.4231881683461</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -24982,7 +24982,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>337.16428481181</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -24998,7 +24998,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6551205385437</v>
+        <v>73.18244149761679</v>
       </c>
       <c r="D33" t="n">
         <v>115.7281862028015</v>
@@ -25007,16 +25007,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>60.66916807667014</v>
+        <v>48.39760197839352</v>
       </c>
       <c r="G33" t="n">
-        <v>46.00144593727452</v>
+        <v>53.09058927895307</v>
       </c>
       <c r="H33" t="n">
         <v>65.73148359565771</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>5.182422756598129</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25052,10 +25052,10 @@
         <v>155.9504032118166</v>
       </c>
       <c r="U33" t="n">
-        <v>135.875275910881</v>
+        <v>195.347954951808</v>
       </c>
       <c r="V33" t="n">
-        <v>152.1017326959695</v>
+        <v>152.1017326959696</v>
       </c>
       <c r="W33" t="n">
         <v>211.1008365810345</v>
@@ -25077,13 +25077,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>116.9989030146522</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>99.82902793943677</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25137,13 +25137,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>216.8062888052874</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>176.4877444779865</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>170.1048059258745</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>353.6398090806142</v>
+        <v>346.5506657389356</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -25165,16 +25165,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>358.3096396565178</v>
       </c>
       <c r="G35" t="n">
-        <v>344.3345890409333</v>
+        <v>403.8072680818602</v>
       </c>
       <c r="H35" t="n">
         <v>299.2609424255035</v>
       </c>
       <c r="I35" t="n">
-        <v>53.34574647084391</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>337.4546272804639</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25235,25 +25235,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
-        <v>73.18244149761681</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>72.086774904945</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>105.4741249782015</v>
+        <v>53.09058927895308</v>
       </c>
       <c r="H36" t="n">
-        <v>65.73148359565771</v>
+        <v>6.258804554730773</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>5.182422756598129</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25286,19 +25286,19 @@
         <v>98.62424720413911</v>
       </c>
       <c r="T36" t="n">
-        <v>96.47772417088963</v>
+        <v>155.9504032118166</v>
       </c>
       <c r="U36" t="n">
-        <v>195.347954951808</v>
+        <v>135.875275910881</v>
       </c>
       <c r="V36" t="n">
-        <v>211.5744117368965</v>
+        <v>152.1017326959696</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>115.0900430015692</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
         <v>157.8079400398083</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>8.131631331638502</v>
+        <v>67.60431037256544</v>
       </c>
       <c r="S37" t="n">
-        <v>118.5376501618583</v>
+        <v>178.0103292027852</v>
       </c>
       <c r="T37" t="n">
-        <v>183.1717842796857</v>
+        <v>176.0826409380072</v>
       </c>
       <c r="U37" t="n">
-        <v>220.4770878109106</v>
+        <v>279.9497668518375</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>211.6742085689463</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>216.8062888052874</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>170.1048059258745</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>346.5506657389356</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>357.8132776290238</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.45689047713817</v>
+        <v>55.45689047713816</v>
       </c>
       <c r="T38" t="n">
         <v>216.3347521986172</v>
       </c>
       <c r="U38" t="n">
-        <v>194.9505091274192</v>
+        <v>202.0396524690977</v>
       </c>
       <c r="V38" t="n">
-        <v>286.8665000759572</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>337.16428481181</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25481,16 +25481,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>55.48674532007202</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>46.00144593727456</v>
+        <v>105.4741249782015</v>
       </c>
       <c r="H39" t="n">
-        <v>65.73148359565771</v>
+        <v>6.258804554730773</v>
       </c>
       <c r="I39" t="n">
-        <v>5.182422756598129</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,16 +25520,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>98.62424720413911</v>
+        <v>39.15156816321218</v>
       </c>
       <c r="T39" t="n">
-        <v>96.47772417088964</v>
+        <v>155.9504032118166</v>
       </c>
       <c r="U39" t="n">
-        <v>195.347954951808</v>
+        <v>148.1468420091577</v>
       </c>
       <c r="V39" t="n">
-        <v>152.1017326959696</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
         <v>211.1008365810345</v>
@@ -25538,7 +25538,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
-        <v>157.8079400398083</v>
+        <v>98.33526099888134</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>126.350030289177</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25563,13 +25563,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.2039031595537</v>
+        <v>105.7312241186268</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7863228601726</v>
+        <v>85.31364381924566</v>
       </c>
       <c r="I40" t="n">
-        <v>103.9358664753031</v>
+        <v>51.55233077605467</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>223.8954321469659</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>163.015662584196</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>346.6462888269176</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25636,19 +25636,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>350.7241342873454</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>357.3474288849224</v>
       </c>
       <c r="G41" t="n">
-        <v>351.4237323826118</v>
+        <v>403.8072680818602</v>
       </c>
       <c r="H41" t="n">
         <v>299.2609424255035</v>
       </c>
       <c r="I41" t="n">
-        <v>53.34574647084391</v>
+        <v>0.9622107715955011</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>254.4231881683461</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>286.8665000759572</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>320.4500188152562</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25718,16 +25718,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>60.66916807667015</v>
       </c>
       <c r="G42" t="n">
-        <v>105.4741249782015</v>
+        <v>46.00144593727455</v>
       </c>
       <c r="H42" t="n">
-        <v>65.73148359565771</v>
+        <v>6.258804554730773</v>
       </c>
       <c r="I42" t="n">
-        <v>5.182422756598129</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>155.9504032118166</v>
       </c>
       <c r="U42" t="n">
-        <v>135.8752759108811</v>
+        <v>195.347954951808</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>151.6281575401076</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>115.0900430015692</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
-        <v>105.4244043405599</v>
+        <v>98.33526099888134</v>
       </c>
     </row>
     <row r="43">
@@ -25797,10 +25797,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>103.5121355895877</v>
       </c>
       <c r="G43" t="n">
-        <v>112.8203674603053</v>
+        <v>105.7312241186268</v>
       </c>
       <c r="H43" t="n">
         <v>144.7863228601726</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.60431037256544</v>
+        <v>15.22077467331702</v>
       </c>
       <c r="S43" t="n">
         <v>178.0103292027852</v>
@@ -25842,13 +25842,13 @@
         <v>176.0826409380072</v>
       </c>
       <c r="U43" t="n">
-        <v>220.4770878109106</v>
+        <v>279.9497668518375</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>216.8062888052874</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -25876,16 +25876,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>349.2732251130263</v>
+        <v>357.3474288849224</v>
       </c>
       <c r="G44" t="n">
-        <v>403.7770876139562</v>
+        <v>403.8072680818602</v>
       </c>
       <c r="H44" t="n">
-        <v>298.9518567085815</v>
+        <v>246.8774067262551</v>
       </c>
       <c r="I44" t="n">
-        <v>52.18221398197448</v>
+        <v>53.34574647084391</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.69494929287938</v>
+        <v>114.9295695180651</v>
       </c>
       <c r="T44" t="n">
-        <v>216.2026372003674</v>
+        <v>216.3347521986172</v>
       </c>
       <c r="U44" t="n">
-        <v>186.8738909180908</v>
+        <v>194.9505091274192</v>
       </c>
       <c r="V44" t="n">
-        <v>286.8438847353497</v>
+        <v>286.8665000759572</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -25952,19 +25952,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>59.81520880666834</v>
       </c>
       <c r="F45" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>37.91109419144284</v>
+        <v>46.00144593727455</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>65.73148359565771</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>5.182422756598129</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,16 +25994,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>41.48410748651876</v>
+        <v>39.15156816321217</v>
       </c>
       <c r="T45" t="n">
-        <v>155.8853155449445</v>
+        <v>155.9504032118166</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3468925851017</v>
+        <v>142.9644192525596</v>
       </c>
       <c r="V45" t="n">
-        <v>144.0275289240735</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
         <v>211.1008365810345</v>
@@ -26037,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.1903652406517</v>
+        <v>165.2039031595537</v>
       </c>
       <c r="H46" t="n">
-        <v>144.6659584539346</v>
+        <v>85.31364381924564</v>
       </c>
       <c r="I46" t="n">
-        <v>103.5287443323222</v>
+        <v>103.9358664753031</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.99559630993437</v>
+        <v>67.60431037256544</v>
       </c>
       <c r="S46" t="n">
-        <v>177.77440019792</v>
+        <v>118.5376501618583</v>
       </c>
       <c r="T46" t="n">
-        <v>167.9505933308024</v>
+        <v>176.0826409380072</v>
       </c>
       <c r="U46" t="n">
-        <v>212.4021456070744</v>
+        <v>279.9497668518375</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>218.7633519106248</v>
       </c>
       <c r="W46" t="n">
-        <v>216.7836734646799</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>168.4135407060904</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>185500.4175845831</v>
+        <v>185500.417584583</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>185500.417584583</v>
+        <v>185500.4175845831</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>197127.7265212225</v>
+        <v>197127.7265212226</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>197127.7265212225</v>
+        <v>197127.7265212226</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>197127.7265212226</v>
+        <v>197127.7265212225</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>203900.0100367971</v>
+        <v>197127.7265212226</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>35442.34058498462</v>
       </c>
       <c r="C2" t="n">
-        <v>35442.34058498463</v>
+        <v>35442.34058498462</v>
       </c>
       <c r="D2" t="n">
         <v>35558.66144095043</v>
       </c>
       <c r="E2" t="n">
-        <v>43693.3371277484</v>
+        <v>43693.33712774837</v>
       </c>
       <c r="F2" t="n">
         <v>43693.33712774838</v>
       </c>
       <c r="G2" t="n">
+        <v>45348.36536923675</v>
+      </c>
+      <c r="H2" t="n">
         <v>45348.36536923676</v>
       </c>
-      <c r="H2" t="n">
-        <v>45348.36536923677</v>
-      </c>
       <c r="I2" t="n">
-        <v>48318.68772419154</v>
+        <v>48318.68772419151</v>
       </c>
       <c r="J2" t="n">
-        <v>48318.68772419154</v>
+        <v>48318.68772419151</v>
       </c>
       <c r="K2" t="n">
-        <v>48318.68772419154</v>
+        <v>48318.68772419151</v>
       </c>
       <c r="L2" t="n">
-        <v>48318.68772419154</v>
+        <v>48318.68772419151</v>
       </c>
       <c r="M2" t="n">
-        <v>48318.68772419155</v>
+        <v>48318.68772419152</v>
       </c>
       <c r="N2" t="n">
-        <v>48318.68772419154</v>
+        <v>48318.68772419151</v>
       </c>
       <c r="O2" t="n">
         <v>48318.68772419151</v>
       </c>
       <c r="P2" t="n">
-        <v>50013.01949141198</v>
+        <v>48318.68772419152</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>8029.134114982229</v>
       </c>
       <c r="E3" t="n">
-        <v>56032.81397264299</v>
+        <v>56032.81397264294</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7991.796645927006</v>
+        <v>7991.796645927007</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14703.94933419946</v>
+        <v>14703.94933419947</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9352.452789169787</v>
+        <v>9352.452789169782</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1895.444979442248</v>
+        <v>1895.444979442251</v>
       </c>
       <c r="P3" t="n">
-        <v>6905.271374916314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8682.383497347948</v>
+        <v>8682.383497347946</v>
       </c>
       <c r="C4" t="n">
         <v>8682.383497347948</v>
       </c>
       <c r="D4" t="n">
-        <v>7312.06638439312</v>
+        <v>7312.066384393123</v>
       </c>
       <c r="E4" t="n">
-        <v>4254.006803970127</v>
+        <v>4254.006803970128</v>
       </c>
       <c r="F4" t="n">
-        <v>4254.006803970128</v>
+        <v>4254.006803970129</v>
       </c>
       <c r="G4" t="n">
-        <v>4146.329666189581</v>
+        <v>4146.32966618958</v>
       </c>
       <c r="H4" t="n">
-        <v>4146.329666189582</v>
+        <v>4146.32966618958</v>
       </c>
       <c r="I4" t="n">
-        <v>3904.547448197008</v>
+        <v>3904.547448197009</v>
       </c>
       <c r="J4" t="n">
         <v>3904.547448197009</v>
@@ -26453,13 +26453,13 @@
         <v>3904.547448197008</v>
       </c>
       <c r="N4" t="n">
-        <v>3904.547448197007</v>
+        <v>3904.547448197009</v>
       </c>
       <c r="O4" t="n">
         <v>3904.547448197008</v>
       </c>
       <c r="P4" t="n">
-        <v>3906.505452924157</v>
+        <v>3904.547448197009</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>36451.30153811922</v>
       </c>
       <c r="E5" t="n">
-        <v>6321.855464663676</v>
+        <v>6321.855464663671</v>
       </c>
       <c r="F5" t="n">
-        <v>6321.855464663672</v>
+        <v>6321.855464663671</v>
       </c>
       <c r="G5" t="n">
         <v>6964.288110247693</v>
       </c>
       <c r="H5" t="n">
-        <v>6964.288110247695</v>
+        <v>6964.288110247693</v>
       </c>
       <c r="I5" t="n">
-        <v>8137.065510503458</v>
+        <v>8137.06551050346</v>
       </c>
       <c r="J5" t="n">
-        <v>8137.065510503462</v>
+        <v>8137.06551050346</v>
       </c>
       <c r="K5" t="n">
-        <v>8137.065510503462</v>
+        <v>8137.065510503459</v>
       </c>
       <c r="L5" t="n">
-        <v>8137.065510503462</v>
+        <v>8137.06551050346</v>
       </c>
       <c r="M5" t="n">
         <v>8137.06551050346</v>
       </c>
       <c r="N5" t="n">
-        <v>8137.065510503459</v>
+        <v>8137.06551050346</v>
       </c>
       <c r="O5" t="n">
-        <v>8137.065510503458</v>
+        <v>8137.06551050346</v>
       </c>
       <c r="P5" t="n">
-        <v>8791.638232161225</v>
+        <v>8137.06551050346</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-125267.2795695523</v>
+        <v>-126642.9439242699</v>
       </c>
       <c r="C6" t="n">
-        <v>-9486.963013809836</v>
+        <v>-10862.62736852739</v>
       </c>
       <c r="D6" t="n">
-        <v>-16233.84059654413</v>
+        <v>-17608.67408800477</v>
       </c>
       <c r="E6" t="n">
-        <v>-22915.3391135284</v>
+        <v>-24232.06777865473</v>
       </c>
       <c r="F6" t="n">
-        <v>33117.47485911458</v>
+        <v>31800.74619398822</v>
       </c>
       <c r="G6" t="n">
-        <v>26245.95094687248</v>
+        <v>24941.04391204245</v>
       </c>
       <c r="H6" t="n">
-        <v>34237.74759279949</v>
+        <v>32932.84055796946</v>
       </c>
       <c r="I6" t="n">
-        <v>21573.12543129161</v>
+        <v>20289.43498471123</v>
       </c>
       <c r="J6" t="n">
-        <v>36277.07476549107</v>
+        <v>34993.3843189107</v>
       </c>
       <c r="K6" t="n">
-        <v>36277.07476549107</v>
+        <v>34993.3843189107</v>
       </c>
       <c r="L6" t="n">
-        <v>36277.07476549107</v>
+        <v>34993.38431891069</v>
       </c>
       <c r="M6" t="n">
-        <v>26924.62197632129</v>
+        <v>25640.93152974093</v>
       </c>
       <c r="N6" t="n">
-        <v>36277.07476549107</v>
+        <v>34993.3843189107</v>
       </c>
       <c r="O6" t="n">
-        <v>34381.62978604879</v>
+        <v>33097.93933946844</v>
       </c>
       <c r="P6" t="n">
-        <v>30409.60443141028</v>
+        <v>34993.38431891071</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>207.3911295786744</v>
       </c>
       <c r="P3" t="n">
-        <v>214.8985209697975</v>
+        <v>207.3911295786744</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>37.52930446208646</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="F4" t="n">
         <v>37.52930446208642</v>
@@ -26807,19 +26807,19 @@
         <v>45.40562735059405</v>
       </c>
       <c r="H4" t="n">
-        <v>45.40562735059407</v>
+        <v>45.40562735059405</v>
       </c>
       <c r="I4" t="n">
-        <v>59.47267904092692</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="J4" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="K4" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="L4" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="M4" t="n">
         <v>59.47267904092693</v>
@@ -26828,10 +26828,10 @@
         <v>59.47267904092693</v>
       </c>
       <c r="O4" t="n">
-        <v>59.47267904092692</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="P4" t="n">
-        <v>67.54688281282303</v>
+        <v>59.47267904092694</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>9.375295260215537</v>
       </c>
       <c r="E3" t="n">
-        <v>55.79689060777983</v>
+        <v>55.79689060777977</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7.507391391123093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>37.52930446208646</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.87632288850763</v>
+        <v>7.876322888507637</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.06705169033285</v>
+        <v>14.06705169033289</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>37.52930446208643</v>
+        <v>37.52930446208641</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.876322888507623</v>
+        <v>7.876322888507637</v>
       </c>
       <c r="P4" t="n">
-        <v>8.074203771896109</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>37.52930446208646</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.87632288850763</v>
+        <v>7.876322888507637</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31284,13 +31284,13 @@
         <v>4.946772760857344</v>
       </c>
       <c r="I5" t="n">
-        <v>18.62179488470186</v>
+        <v>18.62179488470185</v>
       </c>
       <c r="J5" t="n">
         <v>40.99608491266361</v>
       </c>
       <c r="K5" t="n">
-        <v>61.44250414538339</v>
+        <v>61.4425041453834</v>
       </c>
       <c r="L5" t="n">
         <v>76.22485951021562</v>
@@ -31363,7 +31363,7 @@
         <v>2.495993968922122</v>
       </c>
       <c r="I6" t="n">
-        <v>8.898071142615192</v>
+        <v>8.898071142615191</v>
       </c>
       <c r="J6" t="n">
         <v>24.41698732268457</v>
@@ -31472,10 +31472,10 @@
         <v>9.742184705786196</v>
       </c>
       <c r="S7" t="n">
-        <v>3.775933700160157</v>
+        <v>3.775933700160156</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9257636093246081</v>
+        <v>0.9257636093246082</v>
       </c>
       <c r="U7" t="n">
         <v>0.01181825884244182</v>
@@ -31515,10 +31515,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5207139436852549</v>
       </c>
       <c r="H8" t="n">
-        <v>5.332761675766619</v>
+        <v>5.332761675766618</v>
       </c>
       <c r="I8" t="n">
         <v>20.07482431392581</v>
@@ -31527,10 +31527,10 @@
         <v>44.19494507785645</v>
       </c>
       <c r="K8" t="n">
-        <v>66.23676631405331</v>
+        <v>66.2367663140533</v>
       </c>
       <c r="L8" t="n">
-        <v>82.17256566811095</v>
+        <v>82.17256566811093</v>
       </c>
       <c r="M8" t="n">
         <v>91.4328122641236</v>
@@ -31539,13 +31539,13 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>87.73444147909908</v>
+        <v>87.73444147909906</v>
       </c>
       <c r="P8" t="n">
-        <v>74.87931599436934</v>
+        <v>74.87931599436932</v>
       </c>
       <c r="Q8" t="n">
-        <v>56.23124788614112</v>
+        <v>56.23124788614111</v>
       </c>
       <c r="R8" t="n">
         <v>32.70929726501893</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2786065218500873</v>
       </c>
       <c r="H9" t="n">
         <v>2.690752461025844</v>
@@ -31627,7 +31627,7 @@
         <v>35.56387812247782</v>
       </c>
       <c r="R9" t="n">
-        <v>17.29804352328877</v>
+        <v>17.29804352328876</v>
       </c>
       <c r="S9" t="n">
         <v>5.174993947522452</v>
@@ -31636,7 +31636,7 @@
         <v>1.122979796404518</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.01832937643750575</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>2.076688302211308</v>
       </c>
       <c r="I10" t="n">
-        <v>7.024217692960128</v>
+        <v>7.024217692960127</v>
       </c>
       <c r="J10" t="n">
         <v>16.51370646860668</v>
@@ -31691,19 +31691,19 @@
         <v>34.72613547480952</v>
       </c>
       <c r="M10" t="n">
-        <v>36.61384089471325</v>
+        <v>36.61384089471324</v>
       </c>
       <c r="N10" t="n">
         <v>35.74324559419524</v>
       </c>
       <c r="O10" t="n">
-        <v>33.0146725181814</v>
+        <v>33.01467251818139</v>
       </c>
       <c r="P10" t="n">
         <v>28.24975580022414</v>
       </c>
       <c r="Q10" t="n">
-        <v>19.5586666172478</v>
+        <v>19.55866661724779</v>
       </c>
       <c r="R10" t="n">
         <v>10.50235208868826</v>
@@ -31712,7 +31712,7 @@
         <v>4.070563880714799</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9979994908377442</v>
+        <v>0.9979994908377441</v>
       </c>
       <c r="U10" t="n">
         <v>0.01274041903197122</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7450230516562291</v>
+        <v>0.7450230516562287</v>
       </c>
       <c r="H11" t="n">
-        <v>7.629967327774358</v>
+        <v>7.629967327774355</v>
       </c>
       <c r="I11" t="n">
-        <v>28.7225011989768</v>
+        <v>28.72250119897679</v>
       </c>
       <c r="J11" t="n">
-        <v>63.23290023050792</v>
+        <v>63.23290023050791</v>
       </c>
       <c r="K11" t="n">
-        <v>94.76972600711612</v>
+        <v>94.76972600711609</v>
       </c>
       <c r="L11" t="n">
-        <v>117.5702252242405</v>
+        <v>117.5702252242404</v>
       </c>
       <c r="M11" t="n">
         <v>130.8195289191319</v>
       </c>
       <c r="N11" t="n">
-        <v>130.4415952187058</v>
+        <v>130.4415952187057</v>
       </c>
       <c r="O11" t="n">
         <v>125.5280026947435</v>
       </c>
       <c r="P11" t="n">
-        <v>107.1352461069804</v>
+        <v>107.1352461069803</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.45410806954166</v>
+        <v>80.45410806954163</v>
       </c>
       <c r="R11" t="n">
-        <v>46.79955426860064</v>
+        <v>46.79955426860062</v>
       </c>
       <c r="S11" t="n">
         <v>16.97721278961633</v>
       </c>
       <c r="T11" t="n">
-        <v>3.261338408625144</v>
+        <v>3.261338408625143</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05960184413249831</v>
+        <v>0.05960184413249829</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3986224752328591</v>
+        <v>0.3986224752328589</v>
       </c>
       <c r="H12" t="n">
-        <v>3.849853905538403</v>
+        <v>3.849853905538402</v>
       </c>
       <c r="I12" t="n">
-        <v>13.72450188849976</v>
+        <v>13.72450188849975</v>
       </c>
       <c r="J12" t="n">
-        <v>37.6610821885571</v>
+        <v>37.66108218855709</v>
       </c>
       <c r="K12" t="n">
-        <v>61.8398526245894</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>86.55177910702935</v>
+        <v>86.55177910702932</v>
       </c>
       <c r="M12" t="n">
-        <v>95.09358820050389</v>
+        <v>79.24788371570166</v>
       </c>
       <c r="N12" t="n">
-        <v>90.72269785583646</v>
+        <v>90.7226978558364</v>
       </c>
       <c r="O12" t="n">
-        <v>94.84242725419695</v>
+        <v>94.84242725419692</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>76.11940932757989</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.88380929463654</v>
+        <v>50.88380929463653</v>
       </c>
       <c r="R12" t="n">
-        <v>24.74956034822963</v>
+        <v>24.74956034822962</v>
       </c>
       <c r="S12" t="n">
-        <v>7.404237643031391</v>
+        <v>7.404237643031388</v>
       </c>
       <c r="T12" t="n">
         <v>1.60672831025876</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02622516284426706</v>
+        <v>0.02622516284426705</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,34 +31910,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3341916926384194</v>
+        <v>0.3341916926384192</v>
       </c>
       <c r="H13" t="n">
         <v>2.971267958185221</v>
       </c>
       <c r="I13" t="n">
-        <v>10.05005562952629</v>
+        <v>10.05005562952628</v>
       </c>
       <c r="J13" t="n">
-        <v>23.62735266953625</v>
+        <v>23.62735266953624</v>
       </c>
       <c r="K13" t="n">
-        <v>38.82699847199089</v>
+        <v>38.82699847199088</v>
       </c>
       <c r="L13" t="n">
-        <v>49.68519037644283</v>
+        <v>49.68519037644281</v>
       </c>
       <c r="M13" t="n">
-        <v>52.38606687422058</v>
+        <v>52.38606687422057</v>
       </c>
       <c r="N13" t="n">
-        <v>51.14044329256834</v>
+        <v>51.14044329256831</v>
       </c>
       <c r="O13" t="n">
-        <v>47.23647670129223</v>
+        <v>47.23647670129222</v>
       </c>
       <c r="P13" t="n">
-        <v>40.41896617146845</v>
+        <v>40.41896617146843</v>
       </c>
       <c r="Q13" t="n">
         <v>27.98399709902255</v>
@@ -31946,7 +31946,7 @@
         <v>15.02647374354201</v>
       </c>
       <c r="S13" t="n">
-        <v>5.824049770798633</v>
+        <v>5.824049770798632</v>
       </c>
       <c r="T13" t="n">
         <v>1.427909959455064</v>
@@ -32080,19 +32080,19 @@
         <v>37.66108218855709</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>64.36878802915864</v>
       </c>
       <c r="L15" t="n">
         <v>86.55177910702932</v>
       </c>
       <c r="M15" t="n">
-        <v>79.24788371570168</v>
+        <v>95.09358820050383</v>
       </c>
       <c r="N15" t="n">
-        <v>90.72269785583642</v>
+        <v>90.7226978558364</v>
       </c>
       <c r="O15" t="n">
-        <v>94.84242725419692</v>
+        <v>70.4537175248515</v>
       </c>
       <c r="P15" t="n">
         <v>76.11940932757989</v>
@@ -32320,13 +32320,13 @@
         <v>66.97459634725922</v>
       </c>
       <c r="L18" t="n">
-        <v>68.07071205550247</v>
+        <v>90.05560996743537</v>
       </c>
       <c r="M18" t="n">
         <v>102.9699110890115</v>
       </c>
       <c r="N18" t="n">
-        <v>98.59902074434405</v>
+        <v>76.61412283241114</v>
       </c>
       <c r="O18" t="n">
         <v>98.68188413096588</v>
@@ -32560,10 +32560,10 @@
         <v>90.05560996743537</v>
       </c>
       <c r="M21" t="n">
-        <v>80.98501317707863</v>
+        <v>80.98501317707857</v>
       </c>
       <c r="N21" t="n">
-        <v>98.59902074434406</v>
+        <v>98.59902074434405</v>
       </c>
       <c r="O21" t="n">
         <v>98.68188413096588</v>
@@ -32800,10 +32800,10 @@
         <v>113.0281656203775</v>
       </c>
       <c r="N24" t="n">
-        <v>96.95966747005767</v>
+        <v>112.6660724346769</v>
       </c>
       <c r="O24" t="n">
-        <v>106.1353453420222</v>
+        <v>90.42894037740297</v>
       </c>
       <c r="P24" t="n">
         <v>85.18297169430497</v>
@@ -33037,16 +33037,16 @@
         <v>113.0281656203775</v>
       </c>
       <c r="N27" t="n">
-        <v>96.70972526491788</v>
+        <v>112.6660724346769</v>
       </c>
       <c r="O27" t="n">
         <v>106.1353453420222</v>
       </c>
       <c r="P27" t="n">
-        <v>85.18297169430497</v>
+        <v>69.47656672968579</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.94256070997868</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>27.69649839920487</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8337331842358763</v>
+        <v>0.8337331842358762</v>
       </c>
       <c r="H29" t="n">
-        <v>8.538469973055671</v>
+        <v>8.538469973055669</v>
       </c>
       <c r="I29" t="n">
-        <v>32.14249858525366</v>
+        <v>32.14249858525365</v>
       </c>
       <c r="J29" t="n">
-        <v>70.76206184553978</v>
+        <v>70.76206184553976</v>
       </c>
       <c r="K29" t="n">
         <v>106.0539875342444</v>
@@ -33213,10 +33213,10 @@
         <v>18.99869493577505</v>
       </c>
       <c r="T29" t="n">
-        <v>3.649667013992551</v>
+        <v>3.64966701399255</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0666986547388701</v>
+        <v>0.06669865473887009</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4460865806031865</v>
+        <v>0.4460865806031864</v>
       </c>
       <c r="H30" t="n">
-        <v>4.308257238983407</v>
+        <v>4.308257238983406</v>
       </c>
       <c r="I30" t="n">
-        <v>15.3586827093641</v>
+        <v>15.35868270936409</v>
       </c>
       <c r="J30" t="n">
         <v>42.1453992665493</v>
@@ -33268,28 +33268,28 @@
         <v>72.03320016696279</v>
       </c>
       <c r="L30" t="n">
-        <v>96.85752707351205</v>
+        <v>96.85752707351203</v>
       </c>
       <c r="M30" t="n">
         <v>113.0281656203775</v>
       </c>
       <c r="N30" t="n">
-        <v>112.666072434677</v>
+        <v>112.6660724346769</v>
       </c>
       <c r="O30" t="n">
-        <v>106.1353453420222</v>
+        <v>90.17899817226308</v>
       </c>
       <c r="P30" t="n">
-        <v>69.47656672968586</v>
+        <v>85.18297169430495</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>56.94256070997867</v>
       </c>
       <c r="R30" t="n">
-        <v>27.69649839920487</v>
+        <v>27.69649839920486</v>
       </c>
       <c r="S30" t="n">
-        <v>8.285862582695147</v>
+        <v>8.285862582695145</v>
       </c>
       <c r="T30" t="n">
         <v>1.798041963045299</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3739840041582653</v>
+        <v>0.3739840041582652</v>
       </c>
       <c r="H31" t="n">
         <v>3.325057782425306</v>
       </c>
       <c r="I31" t="n">
-        <v>11.24671896141402</v>
+        <v>11.24671896141401</v>
       </c>
       <c r="J31" t="n">
         <v>26.44066909398935</v>
@@ -33347,7 +33347,7 @@
         <v>43.4501415740239</v>
       </c>
       <c r="L31" t="n">
-        <v>55.60122185458428</v>
+        <v>55.60122185458427</v>
       </c>
       <c r="M31" t="n">
         <v>58.6236925790997</v>
@@ -33359,7 +33359,7 @@
         <v>52.86093906047918</v>
       </c>
       <c r="P31" t="n">
-        <v>45.23166537565054</v>
+        <v>45.23166537565053</v>
       </c>
       <c r="Q31" t="n">
         <v>31.31606056637983</v>
@@ -33368,13 +33368,13 @@
         <v>16.8156807687889</v>
       </c>
       <c r="S31" t="n">
-        <v>6.517521236103584</v>
+        <v>6.517521236103583</v>
       </c>
       <c r="T31" t="n">
         <v>1.597931654130769</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02039912749954177</v>
+        <v>0.02039912749954176</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33511,13 +33511,13 @@
         <v>113.0281656203775</v>
       </c>
       <c r="N33" t="n">
-        <v>96.95966747005784</v>
+        <v>112.6660724346769</v>
       </c>
       <c r="O33" t="n">
         <v>106.1353453420222</v>
       </c>
       <c r="P33" t="n">
-        <v>85.18297169430497</v>
+        <v>69.47656672968579</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -33739,7 +33739,7 @@
         <v>42.1453992665493</v>
       </c>
       <c r="K36" t="n">
-        <v>56.07685299720362</v>
+        <v>72.03320016696279</v>
       </c>
       <c r="L36" t="n">
         <v>96.85752707351205</v>
@@ -33748,7 +33748,7 @@
         <v>113.0281656203775</v>
       </c>
       <c r="N36" t="n">
-        <v>112.6660724346769</v>
+        <v>96.70972526491776</v>
       </c>
       <c r="O36" t="n">
         <v>106.1353453420222</v>
@@ -33976,7 +33976,7 @@
         <v>42.1453992665493</v>
       </c>
       <c r="K39" t="n">
-        <v>56.32679520234352</v>
+        <v>72.03320016696279</v>
       </c>
       <c r="L39" t="n">
         <v>96.85752707351205</v>
@@ -33985,7 +33985,7 @@
         <v>113.0281656203775</v>
       </c>
       <c r="N39" t="n">
-        <v>112.6660724346769</v>
+        <v>96.70972526491776</v>
       </c>
       <c r="O39" t="n">
         <v>106.1353453420222</v>
@@ -33994,7 +33994,7 @@
         <v>85.18297169430497</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>56.94256070997868</v>
       </c>
       <c r="R39" t="n">
         <v>27.69649839920487</v>
@@ -34222,13 +34222,13 @@
         <v>113.0281656203775</v>
       </c>
       <c r="N42" t="n">
-        <v>112.6660724346769</v>
+        <v>96.70972526491776</v>
       </c>
       <c r="O42" t="n">
         <v>106.1353453420222</v>
       </c>
       <c r="P42" t="n">
-        <v>69.22662452454574</v>
+        <v>85.18297169430497</v>
       </c>
       <c r="Q42" t="n">
         <v>56.94256070997868</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8639136521398887</v>
+        <v>0.8337331842358763</v>
       </c>
       <c r="H44" t="n">
-        <v>8.847555689977638</v>
+        <v>8.538469973055671</v>
       </c>
       <c r="I44" t="n">
-        <v>33.30603107412309</v>
+        <v>32.14249858525366</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>70.76206184553978</v>
       </c>
       <c r="K44" t="n">
-        <v>109.8930562283895</v>
+        <v>106.0539875342444</v>
       </c>
       <c r="L44" t="n">
-        <v>136.3320536600656</v>
+        <v>131.5693494713032</v>
       </c>
       <c r="M44" t="n">
-        <v>151.6956780713084</v>
+        <v>146.3962519864579</v>
       </c>
       <c r="N44" t="n">
-        <v>154.1502727354508</v>
+        <v>148.7650963961681</v>
       </c>
       <c r="O44" t="n">
-        <v>145.5597313569848</v>
+        <v>140.4746620454226</v>
       </c>
       <c r="P44" t="n">
-        <v>124.2318630697813</v>
+        <v>119.8918740595994</v>
       </c>
       <c r="Q44" t="n">
-        <v>93.29295540252147</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>54.26781595123234</v>
+        <v>52.37199213425691</v>
       </c>
       <c r="S44" t="n">
-        <v>19.68643234813774</v>
+        <v>18.99869493577505</v>
       </c>
       <c r="T44" t="n">
-        <v>3.781782012242365</v>
+        <v>3.649667013992551</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06911309217119109</v>
+        <v>0.0666986547388701</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4622345545388097</v>
+        <v>0.4460865806031865</v>
       </c>
       <c r="H45" t="n">
-        <v>4.464212671466926</v>
+        <v>4.308257238983407</v>
       </c>
       <c r="I45" t="n">
-        <v>15.91465461898972</v>
+        <v>15.3586827093641</v>
       </c>
       <c r="J45" t="n">
-        <v>43.67102868123027</v>
+        <v>42.1453992665493</v>
       </c>
       <c r="K45" t="n">
-        <v>74.64074383533051</v>
+        <v>72.03320016696279</v>
       </c>
       <c r="L45" t="n">
-        <v>100.3636913265078</v>
+        <v>96.85752707351205</v>
       </c>
       <c r="M45" t="n">
-        <v>106.38842060348</v>
+        <v>113.0281656203775</v>
       </c>
       <c r="N45" t="n">
-        <v>120.2195037263021</v>
+        <v>112.6660724346769</v>
       </c>
       <c r="O45" t="n">
-        <v>109.9773591231</v>
+        <v>106.1353453420222</v>
       </c>
       <c r="P45" t="n">
-        <v>88.26652647153816</v>
+        <v>69.47656672968579</v>
       </c>
       <c r="Q45" t="n">
-        <v>59.00383541797157</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>28.69908927215523</v>
+        <v>27.69649839920487</v>
       </c>
       <c r="S45" t="n">
-        <v>8.58580411610464</v>
+        <v>8.285862582695147</v>
       </c>
       <c r="T45" t="n">
-        <v>1.863129629917395</v>
+        <v>1.798041963045299</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03041016806176381</v>
+        <v>0.0293478013554728</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3875219230602905</v>
+        <v>0.3739840041582653</v>
       </c>
       <c r="H46" t="n">
-        <v>3.445422188663313</v>
+        <v>3.325057782425306</v>
       </c>
       <c r="I46" t="n">
-        <v>11.65384110439492</v>
+        <v>11.24671896141402</v>
       </c>
       <c r="J46" t="n">
-        <v>27.39779996036254</v>
+        <v>26.44066909398935</v>
       </c>
       <c r="K46" t="n">
-        <v>45.0230016064592</v>
+        <v>43.4501415740239</v>
       </c>
       <c r="L46" t="n">
-        <v>57.61394117934538</v>
+        <v>55.60122185458428</v>
       </c>
       <c r="M46" t="n">
-        <v>60.74582290298716</v>
+        <v>58.6236925790997</v>
       </c>
       <c r="N46" t="n">
-        <v>59.30142300794432</v>
+        <v>57.22975219996439</v>
       </c>
       <c r="O46" t="n">
-        <v>54.77446236128544</v>
+        <v>52.86093906047918</v>
       </c>
       <c r="P46" t="n">
-        <v>46.86901513085548</v>
+        <v>45.23166537565054</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.44967666643942</v>
+        <v>31.31606056637983</v>
       </c>
       <c r="R46" t="n">
-        <v>17.42439483141997</v>
+        <v>16.8156807687889</v>
       </c>
       <c r="S46" t="n">
-        <v>6.753450240968879</v>
+        <v>6.517521236103584</v>
       </c>
       <c r="T46" t="n">
-        <v>1.655775489439423</v>
+        <v>1.597931654130769</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02113755943965223</v>
+        <v>0.02039912749954177</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5.633336333898995</v>
+        <v>5.633336333898967</v>
       </c>
       <c r="L11" t="n">
-        <v>22.08482716139564</v>
+        <v>22.08482716139561</v>
       </c>
       <c r="M11" t="n">
-        <v>37.52930446208646</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="N11" t="n">
-        <v>37.52930446208646</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="O11" t="n">
-        <v>32.33822706896042</v>
+        <v>32.33822706896039</v>
       </c>
       <c r="P11" t="n">
-        <v>13.48588282609623</v>
+        <v>13.48588282609619</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>6.01406983997401</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>30.4372552961803</v>
+        <v>30.43725529618027</v>
       </c>
       <c r="M12" t="n">
-        <v>37.52930446208646</v>
+        <v>21.68359997728423</v>
       </c>
       <c r="N12" t="n">
-        <v>37.52930446208646</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="O12" t="n">
-        <v>37.09094825419695</v>
+        <v>37.09094825419692</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>21.85977432477614</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>37.52930446208646</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>36.0129689282648</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>36.01296892826477</v>
       </c>
       <c r="M13" t="n">
-        <v>37.52930446208646</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35588,7 +35588,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.52930446208646</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>8.543005244543245</v>
       </c>
       <c r="L15" t="n">
         <v>30.43725529618027</v>
       </c>
       <c r="M15" t="n">
-        <v>21.68359997728426</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="N15" t="n">
         <v>37.52930446208642</v>
       </c>
       <c r="O15" t="n">
-        <v>37.09094825419692</v>
+        <v>12.7022385248515</v>
       </c>
       <c r="P15" t="n">
         <v>21.85977432477614</v>
@@ -35807,25 +35807,25 @@
         <v>37.52930446208642</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>36.01296892826477</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>37.52930446208642</v>
       </c>
-      <c r="N16" t="n">
+      <c r="Q16" t="n">
         <v>37.52930446208642</v>
-      </c>
-      <c r="O16" t="n">
-        <v>36.01296892826476</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>11.14881356264383</v>
       </c>
       <c r="L18" t="n">
-        <v>11.95618824465342</v>
+        <v>33.94108615658632</v>
       </c>
       <c r="M18" t="n">
         <v>45.40562735059405</v>
       </c>
       <c r="N18" t="n">
-        <v>45.40562735059405</v>
+        <v>23.42072943866114</v>
       </c>
       <c r="O18" t="n">
         <v>40.93040513096589</v>
@@ -36050,10 +36050,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>43.57105654854984</v>
-      </c>
-      <c r="N19" t="n">
-        <v>45.40562735059405</v>
       </c>
       <c r="O19" t="n">
         <v>45.40562735059405</v>
@@ -36062,7 +36062,7 @@
         <v>45.40562735059405</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>45.40562735059405</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>33.94108615658632</v>
       </c>
       <c r="M21" t="n">
-        <v>23.4207294386612</v>
+        <v>23.42072943866114</v>
       </c>
       <c r="N21" t="n">
-        <v>45.40562735059407</v>
+        <v>45.40562735059405</v>
       </c>
       <c r="O21" t="n">
         <v>40.93040513096589</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>38.80864393332273</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>45.40562735059405</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>45.40562735059405</v>
       </c>
       <c r="M22" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>45.40562735059407</v>
+        <v>1.498089871406435</v>
       </c>
       <c r="O22" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>43.57105654854985</v>
+        <v>3.264322743820663</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>45.40562735059405</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>55.46388188196011</v>
       </c>
       <c r="N24" t="n">
-        <v>43.76627407630767</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="O24" t="n">
-        <v>48.38386634202217</v>
+        <v>32.67746137740297</v>
       </c>
       <c r="P24" t="n">
         <v>30.92333669150122</v>
@@ -36518,25 +36518,25 @@
         <v>40.66546647298988</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9729279606827745</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="M25" t="n">
-        <v>59.47267904092692</v>
+        <v>10.887169349486</v>
       </c>
       <c r="N25" t="n">
-        <v>15.43134808034814</v>
+        <v>5.517106691544953</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>59.47267904092692</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>59.47267904092692</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>55.46388188196011</v>
       </c>
       <c r="N27" t="n">
-        <v>43.51633187116789</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="O27" t="n">
         <v>48.38386634202217</v>
       </c>
       <c r="P27" t="n">
-        <v>30.92333669150122</v>
+        <v>15.21693172688204</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.2499422051399591</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,19 +36755,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="L28" t="n">
-        <v>59.47267904092697</v>
+        <v>57.06974251402082</v>
       </c>
       <c r="M28" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="N28" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="O28" t="n">
-        <v>57.06974251402083</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>16.91759786102732</v>
+        <v>16.9175978610273</v>
       </c>
       <c r="L29" t="n">
         <v>36.08395140845833</v>
@@ -36843,13 +36843,13 @@
         <v>53.10602752941246</v>
       </c>
       <c r="N29" t="n">
-        <v>55.85280563954881</v>
+        <v>55.85280563954878</v>
       </c>
       <c r="O29" t="n">
         <v>47.28488641963948</v>
       </c>
       <c r="P29" t="n">
-        <v>26.24251077871524</v>
+        <v>26.24251077871523</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>16.20741738234739</v>
       </c>
       <c r="L30" t="n">
-        <v>40.743003262663</v>
+        <v>40.74300326266298</v>
       </c>
       <c r="M30" t="n">
-        <v>55.46388188196011</v>
+        <v>55.4638818819601</v>
       </c>
       <c r="N30" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="O30" t="n">
-        <v>48.38386634202217</v>
+        <v>32.42751917226308</v>
       </c>
       <c r="P30" t="n">
-        <v>15.2169317268821</v>
+        <v>30.92333669150121</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.249942205139952</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36995,19 +36995,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>59.47267904092697</v>
+        <v>57.06974251402082</v>
       </c>
       <c r="M31" t="n">
-        <v>51.55263582247589</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="N31" t="n">
-        <v>5.517106691544953</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="O31" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="P31" t="n">
-        <v>59.47267904092697</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>55.46388188196011</v>
       </c>
       <c r="N33" t="n">
-        <v>43.76627407630784</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="O33" t="n">
         <v>48.38386634202217</v>
       </c>
       <c r="P33" t="n">
-        <v>30.92333669150122</v>
+        <v>15.21693172688204</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="L34" t="n">
-        <v>59.47267904092697</v>
+        <v>0.9729279606827745</v>
       </c>
       <c r="M34" t="n">
-        <v>57.06974251402085</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="N34" t="n">
-        <v>59.47267904092697</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="O34" t="n">
-        <v>59.47267904092697</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>56.09681455333804</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2510702125882242</v>
+        <v>16.20741738234739</v>
       </c>
       <c r="L36" t="n">
         <v>40.743003262663</v>
@@ -37396,7 +37396,7 @@
         <v>55.46388188196011</v>
       </c>
       <c r="N36" t="n">
-        <v>59.47267904092693</v>
+        <v>43.51633187116777</v>
       </c>
       <c r="O36" t="n">
         <v>48.38386634202217</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>40.66546647298988</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="L37" t="n">
+        <v>0.9729279606827745</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.358750080319659</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.517106691544953</v>
+      </c>
+      <c r="O37" t="n">
+        <v>7.555491308483517</v>
+      </c>
+      <c r="P37" t="n">
         <v>59.47267904092693</v>
       </c>
-      <c r="M37" t="n">
+      <c r="Q37" t="n">
         <v>59.47267904092693</v>
-      </c>
-      <c r="N37" t="n">
-        <v>59.47267904092693</v>
-      </c>
-      <c r="O37" t="n">
-        <v>57.0697425140208</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5010124177281261</v>
+        <v>16.20741738234739</v>
       </c>
       <c r="L39" t="n">
         <v>40.743003262663</v>
@@ -37633,7 +37633,7 @@
         <v>55.46388188196011</v>
       </c>
       <c r="N39" t="n">
-        <v>59.47267904092693</v>
+        <v>43.51633187116777</v>
       </c>
       <c r="O39" t="n">
         <v>48.38386634202217</v>
@@ -37642,7 +37642,7 @@
         <v>30.92333669150122</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.2499422051399591</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>40.66546647298988</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>59.47267904092693</v>
       </c>
-      <c r="L40" t="n">
-        <v>0.9729279606827745</v>
-      </c>
       <c r="M40" t="n">
-        <v>2.358750080319659</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="N40" t="n">
+        <v>5.517106691544953</v>
+      </c>
+      <c r="O40" t="n">
+        <v>10.88716934948597</v>
+      </c>
+      <c r="P40" t="n">
         <v>59.47267904092693</v>
       </c>
-      <c r="O40" t="n">
-        <v>53.73806447301835</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
       <c r="Q40" t="n">
-        <v>59.47267904092693</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>55.46388188196011</v>
       </c>
       <c r="N42" t="n">
-        <v>59.47267904092692</v>
+        <v>43.51633187116777</v>
       </c>
       <c r="O42" t="n">
         <v>48.38386634202217</v>
       </c>
       <c r="P42" t="n">
-        <v>14.966989521742</v>
+        <v>30.92333669150122</v>
       </c>
       <c r="Q42" t="n">
         <v>0.2499422051399591</v>
@@ -37940,25 +37940,25 @@
         <v>40.66546647298988</v>
       </c>
       <c r="K43" t="n">
-        <v>16.40427604103092</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="L43" t="n">
-        <v>59.47267904092692</v>
+        <v>0.9729279606827745</v>
       </c>
       <c r="M43" t="n">
-        <v>59.47267904092692</v>
+        <v>2.358750080319659</v>
       </c>
       <c r="N43" t="n">
-        <v>59.47267904092692</v>
+        <v>5.517106691544953</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>7.555491308483517</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>59.47267904092693</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>20.75666655517233</v>
+        <v>16.91759786102732</v>
       </c>
       <c r="L44" t="n">
-        <v>40.84665559722079</v>
+        <v>36.08395140845833</v>
       </c>
       <c r="M44" t="n">
-        <v>58.4054536142629</v>
+        <v>53.10602752941246</v>
       </c>
       <c r="N44" t="n">
-        <v>61.23798197883148</v>
+        <v>55.85280563954881</v>
       </c>
       <c r="O44" t="n">
-        <v>52.36995573120167</v>
+        <v>47.28488641963948</v>
       </c>
       <c r="P44" t="n">
-        <v>30.58249978889711</v>
+        <v>26.24251077871524</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.259151003369425</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>18.81496105071512</v>
+        <v>16.20741738234739</v>
       </c>
       <c r="L45" t="n">
-        <v>44.24916751565874</v>
+        <v>40.743003262663</v>
       </c>
       <c r="M45" t="n">
-        <v>48.82413686506256</v>
+        <v>55.46388188196011</v>
       </c>
       <c r="N45" t="n">
-        <v>67.02611033255209</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="O45" t="n">
-        <v>52.22588012310005</v>
+        <v>48.38386634202217</v>
       </c>
       <c r="P45" t="n">
-        <v>34.00689146873441</v>
+        <v>15.21693172688204</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.311216913132853</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>40.66546647298988</v>
       </c>
       <c r="K46" t="n">
-        <v>67.54688281282303</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="L46" t="n">
-        <v>67.54688281282303</v>
+        <v>0.9729279606827745</v>
       </c>
       <c r="M46" t="n">
-        <v>4.48088040420712</v>
+        <v>2.358750080319659</v>
       </c>
       <c r="N46" t="n">
-        <v>7.588777499524873</v>
+        <v>5.517106691544953</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>7.555491308483545</v>
       </c>
       <c r="P46" t="n">
-        <v>52.74805792675477</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.54688281282303</v>
+        <v>59.47267904092694</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
